--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -177,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,6 +198,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,13 +219,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -577,7 +581,7 @@
       <c r="J11" s="4" t="n">
         <v>21.5</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -612,7 +616,7 @@
       <c r="J12" s="4" t="n">
         <v>22.9</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -647,7 +651,7 @@
       <c r="J13" s="4" t="n">
         <v>18.1</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -682,7 +686,7 @@
       <c r="J14" s="4" t="n">
         <v>21.9</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -717,7 +721,7 @@
       <c r="J15" s="4" t="n">
         <v>37.7</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -752,7 +756,7 @@
       <c r="J16" s="4" t="n">
         <v>23.3</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -787,7 +791,7 @@
       <c r="J17" s="4" t="n">
         <v>26.1</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -822,7 +826,7 @@
       <c r="J18" s="4" t="n">
         <v>9.4</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -857,7 +861,322 @@
       <c r="J19" s="4" t="n">
         <v>22.5</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>83.4</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>77.9</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>193</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>81.9</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>64.9</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>119.3</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>90.4</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>235</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>91.4</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">MEDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAJO</t>
   </si>
 </sst>
 </file>
@@ -219,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1177,6 +1180,321 @@
         <v>15.8</v>
       </c>
       <c r="K28" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>122</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>65.4</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>84.1</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>230.9</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>65.6</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>87.9</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>44185</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>89.1</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="K37" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1495,6 +1495,321 @@
         <v>16.8</v>
       </c>
       <c r="K37" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>212</v>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>125</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>44192</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>88.9</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1810,6 +1810,321 @@
         <v>13.5</v>
       </c>
       <c r="K46" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>92.1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>90.4</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>177.1</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>158.7</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>82.1</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>44199</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K55" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2125,6 +2128,321 @@
         <v>11.2</v>
       </c>
       <c r="K55" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>368.3</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>483.8</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>342.3</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>356.2</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>245.9</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>462.8</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>289.6</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>384.9</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>367.1</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>255.1</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>267.4</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>365.6</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>251.3</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>220</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>438.9</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>293.7</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>44207</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>244.3</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K64" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -2444,6 +2444,321 @@
       </c>
       <c r="K64" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>697.6</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>433.2</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>541.9</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>342.9</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H65" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>942.5</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>591.4</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>731.4</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>479.2</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>784.1</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>464.4</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>723.1</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>432</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>713.8</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>455.4</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>350.4</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>668.4</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>483.4</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>718.8</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>485.2</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>550.6</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>735.8</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>437.7</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>518.5</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>328.4</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>740</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>455.5</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>600.1</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>367.9</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
+        <v>44214</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>505.2</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>348.8</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>232.4</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -2759,6 +2759,321 @@
       </c>
       <c r="K73" s="0" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>984.4</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>788.4</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>418.7</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>678</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1037.9</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>528.9</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1090.3</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>547.4</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>998.3</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>987.3</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>821.4</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>453.2</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>930.6</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>722.6</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>414.7</v>
+      </c>
+      <c r="G78" s="0" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="H78" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1104.1</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>594.8</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>840.1</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>430.9</v>
+      </c>
+      <c r="G79" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>897.5</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>445.6</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>721.7</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>378.7</v>
+      </c>
+      <c r="G80" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1063.9</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>564.8</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>845.8</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>455.5</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H81" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>44221</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>753.2</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>391.5</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>546.6</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H82" s="0" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J92" activeCellId="0" sqref="J92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -3073,6 +3073,321 @@
         <v>23.9</v>
       </c>
       <c r="K82" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>979.9</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>815.2</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H83" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1284.1</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>591.8</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>1038.8</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1047.2</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>452.8</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>928.6</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="G85" s="0" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>909.2</v>
+      </c>
+      <c r="D86" s="0" t="n">
+        <v>390.2</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>831.2</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>367.5</v>
+      </c>
+      <c r="G86" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>961</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>831.7</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>409.2</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1086.7</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>476.9</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>858.4</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="G88" s="0" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>813</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>353.2</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>728.2</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>328.4</v>
+      </c>
+      <c r="G89" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>75.1</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1055.4</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>465.2</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>820.3</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>352.3</v>
+      </c>
+      <c r="G90" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>792.7</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>638.3</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>316.4</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K91" s="0" t="s">
         <v>21</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J92" activeCellId="0" sqref="J92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J101" activeCellId="0" sqref="J101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -3388,6 +3388,321 @@
         <v>30.6</v>
       </c>
       <c r="K91" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>763.8</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>298.1</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>646.3</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="G92" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>990.6</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>380.3</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>824.6</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>309.2</v>
+      </c>
+      <c r="G93" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>926.5</v>
+      </c>
+      <c r="D94" s="0" t="n">
+        <v>390.2</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>818.4</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>360.8</v>
+      </c>
+      <c r="G94" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>605.9</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>541.4</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>712.2</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>259.3</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>653.3</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>234.4</v>
+      </c>
+      <c r="G96" s="0" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="H96" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>766.3</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>281.1</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>645.2</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="G97" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H97" s="0" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>599.3</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>239.1</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>548.6</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="G98" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H98" s="0" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>802.9</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>621.8</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>257.9</v>
+      </c>
+      <c r="G99" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>44235</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>661.9</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>557.7</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="G100" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="K100" s="0" t="s">
         <v>21</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J101" activeCellId="0" sqref="J101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -3703,6 +3703,321 @@
         <v>29.9</v>
       </c>
       <c r="K100" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>472.7</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>168</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>402.7</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="G101" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H101" s="0" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>619.3</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>482.8</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="G102" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H102" s="0" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>616.1</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>214.3</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>561</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>192</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>315.2</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>91.6</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>417.5</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>362.8</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="G105" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="J105" s="0" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>411.4</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="G106" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H106" s="0" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>371.9</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>342.2</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="G107" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H107" s="0" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>493.5</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>172.7</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>416.1</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="G108" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>44242</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>437.9</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>369.5</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H109" s="0" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="K109" s="0" t="s">
         <v>21</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -4019,6 +4019,321 @@
       </c>
       <c r="K109" s="0" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>274.6</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>233.4</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H110" s="0" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>155</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>284.8</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="G111" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>329.2</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>292</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>92.4</v>
+      </c>
+      <c r="G112" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H112" s="0" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="G113" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>273.6</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>97.6</v>
+      </c>
+      <c r="G114" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H114" s="0" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>194.3</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="G115" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H115" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>76.6</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="G116" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H116" s="0" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="D117" s="0" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>246.1</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>87.6</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H117" s="0" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="G118" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H118" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C128" activeCellId="0" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -4333,6 +4333,321 @@
         <v>22.9</v>
       </c>
       <c r="K118" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="D119" s="0" t="n">
+        <v>65.9</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>138.2</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="G119" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H119" s="0" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="D120" s="0" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="G120" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H120" s="0" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H121" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="D122" s="0" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="D123" s="0" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="D124" s="0" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>108.3</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>111.3</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>71.1</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="D127" s="0" t="n">
+        <v>63.9</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K127" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K127"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C128" activeCellId="0" sqref="C128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C137" activeCellId="0" sqref="C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -4648,6 +4648,321 @@
         <v>18.8</v>
       </c>
       <c r="K127" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="D128" s="0" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>115.1</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>67.9</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>72.9</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>64.6</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K136" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -222,13 +222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K136"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C137" activeCellId="0" sqref="C137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C146" activeCellId="0" sqref="C146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -4964,6 +4964,321 @@
       </c>
       <c r="K136" s="0" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="D137" s="0" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K137" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>137.3</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>88.6</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="K138" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K139" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K140" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>206.1</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="K141" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K142" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K143" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>82.1</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K144" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K145" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -102,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,6 +136,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +185,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,6 +210,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,13 +231,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K154"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C146" activeCellId="0" sqref="C146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C155" activeCellId="0" sqref="C155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -5278,6 +5287,321 @@
         <v>14.8</v>
       </c>
       <c r="K145" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K146" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K147" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="K148" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>78.9</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K149" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="K150" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K151" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>98.6</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="G152" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H152" s="0" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="I152" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="K152" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>93.4</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G153" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="I153" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K153" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="6" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>49.4</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K154" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -102,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,11 +136,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,7 +205,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K154"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C155" activeCellId="0" sqref="C155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K163" activeCellId="0" sqref="K163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -5603,6 +5598,321 @@
       </c>
       <c r="K154" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="G155" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="I155" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J155" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K155" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J156" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K156" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="G157" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="H157" s="0" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="I157" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J157" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K157" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J158" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K158" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>265.9</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J159" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K159" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="G160" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="I160" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J160" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K160" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J161" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="K161" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="G162" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H162" s="0" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="I162" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J162" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K162" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>99.9</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>67.6</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J163" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K163" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K163" activeCellId="0" sqref="K163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C173" activeCellId="0" sqref="C173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -5912,6 +5912,321 @@
         <v>15.9</v>
       </c>
       <c r="K163" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J164" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K164" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>155.7</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J165" s="0" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K165" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="G166" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="I166" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J166" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K166" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>240.2</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>88.9</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J167" s="0" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="K167" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>261.4</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>242.3</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J168" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="K168" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>242.8</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J169" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K169" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>296.6</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>167.4</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="G170" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="I170" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="J170" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K170" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>74.6</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="G171" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="I171" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J171" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K171" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>246.9</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>163</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="G172" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H172" s="0" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="I172" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J172" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="K172" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C173" activeCellId="0" sqref="C173"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C182" activeCellId="0" sqref="C182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -6227,6 +6227,321 @@
         <v>17.4</v>
       </c>
       <c r="K172" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>165</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="G173" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="I173" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J173" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K173" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>298.7</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="G174" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="I174" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J174" s="0" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="K174" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="G175" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="I175" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J175" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K175" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>239.9</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="G176" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="I176" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J176" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K176" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="G177" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H177" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I177" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J177" s="0" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K177" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>285.7</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="G178" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="I178" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="J178" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K178" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>383.7</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>187.8</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>217</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="G179" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="I179" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J179" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="K179" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>97.4</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J180" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="K180" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
+        <v>44305</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>83.6</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J181" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="K181" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K190"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C182" activeCellId="0" sqref="C182"/>
+      <selection pane="topLeft" activeCell="C191" activeCellId="0" sqref="C191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -6542,6 +6542,321 @@
         <v>18.9</v>
       </c>
       <c r="K181" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>226.7</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J182" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="K182" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>98.6</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J183" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="K183" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J184" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K184" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J185" s="0" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K185" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J186" s="0" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="K186" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>111.9</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J187" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K187" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>300.7</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J188" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K188" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>86.9</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J189" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K189" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>252.8</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J190" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K190" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C191" activeCellId="0" sqref="C191"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C200" activeCellId="0" sqref="C200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -6857,6 +6857,321 @@
         <v>21.8</v>
       </c>
       <c r="K190" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>194</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J191" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="K191" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J192" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="K192" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>114.1</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>92.4</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J193" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K193" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>71.4</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J194" s="0" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K194" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>369.6</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J195" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="K195" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>65.6</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J196" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="K196" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="J197" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="K197" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>68.9</v>
+      </c>
+      <c r="F198" s="0" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J198" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K198" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="n">
+        <v>44321</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>92.6</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J199" s="0" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K199" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C200" activeCellId="0" sqref="C200"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C209" activeCellId="0" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -7172,6 +7172,321 @@
         <v>20.8</v>
       </c>
       <c r="K199" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>89.9</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J200" s="0" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="K200" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="K201" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J202" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K202" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>77.9</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G203" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H203" s="0" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I203" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J203" s="0" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="K203" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>307</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H204" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I204" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J204" s="0" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="K204" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>95.4</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>91.9</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J205" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K205" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J206" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K206" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J207" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K207" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I208" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J208" s="0" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="K208" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C209" activeCellId="0" sqref="C209"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E218" activeCellId="0" sqref="E218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -7487,6 +7487,321 @@
         <v>20.1</v>
       </c>
       <c r="K208" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>164.4</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>73.6</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J209" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K209" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="G210" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H210" s="0" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="I210" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J210" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="K210" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="I211" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J211" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K211" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I212" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J212" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="K212" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>246.1</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I213" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J213" s="0" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="K213" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>231</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="I214" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J214" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K214" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="I215" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J215" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K215" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="I216" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J216" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K216" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="I217" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J217" s="0" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="K217" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K217"/>
+  <dimension ref="A1:K226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E218" activeCellId="0" sqref="E218"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B215" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C227" activeCellId="0" sqref="C227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -7802,6 +7802,321 @@
         <v>17.7</v>
       </c>
       <c r="K217" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>163.9</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H218" s="0" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I218" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J218" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K218" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="I219" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J219" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K219" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H220" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="I220" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J220" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="K220" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G221" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H221" s="0" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I221" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J221" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K221" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>65.4</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="I222" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J222" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="K222" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="I223" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J223" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K223" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="I224" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J224" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K224" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G225" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H225" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I225" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J225" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K225" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I226" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J226" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K226" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K226"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B215" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C227" activeCellId="0" sqref="C227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C236" activeCellId="0" sqref="C236"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -8117,6 +8117,321 @@
         <v>18.5</v>
       </c>
       <c r="K226" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="G227" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H227" s="0" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="I227" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J227" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="K227" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>72.9</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="G228" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H228" s="0" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="I228" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J228" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K228" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="G229" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H229" s="0" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I229" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J229" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K229" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G230" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I230" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J230" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K230" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>223.9</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>96.6</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="F231" s="0" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G231" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H231" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I231" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J231" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="K231" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>272.4</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="F232" s="0" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="G232" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H232" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="I232" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J232" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K232" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>244.7</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G233" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H233" s="0" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="I233" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J233" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K233" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J234" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K234" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="n">
+        <v>44349</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>232.1</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="F235" s="0" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J235" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K235" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K235"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C236" activeCellId="0" sqref="C236"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B233" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C245" activeCellId="0" sqref="C245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -8433,6 +8433,321 @@
       </c>
       <c r="K235" s="0" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>82.6</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J236" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K236" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J237" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K237" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H238" s="0" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="I238" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J238" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K238" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>202.4</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="F239" s="0" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G239" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H239" s="0" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I239" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J239" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K239" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="D240" s="0" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="F240" s="0" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="G240" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H240" s="0" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="I240" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J240" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K240" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="D241" s="0" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <v>87.4</v>
+      </c>
+      <c r="F241" s="0" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H241" s="0" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="I241" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J241" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K241" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>256.3</v>
+      </c>
+      <c r="D242" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="E242" s="0" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="F242" s="0" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="G242" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H242" s="0" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="I242" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J242" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K242" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="D243" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E243" s="0" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F243" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G243" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H243" s="0" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="I243" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J243" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K243" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="n">
+        <v>44356</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="D244" s="0" t="n">
+        <v>96.1</v>
+      </c>
+      <c r="E244" s="0" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="F244" s="0" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="G244" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="H244" s="0" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="I244" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J244" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K244" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K244"/>
+  <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B233" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C245" activeCellId="0" sqref="C245"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C254" activeCellId="0" sqref="C254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -8747,6 +8747,321 @@
         <v>14.6</v>
       </c>
       <c r="K244" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="D245" s="0" t="n">
+        <v>77.4</v>
+      </c>
+      <c r="E245" s="0" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F245" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G245" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H245" s="0" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I245" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J245" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K245" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>67.6</v>
+      </c>
+      <c r="D246" s="0" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="E246" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F246" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G246" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H246" s="0" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="I246" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J246" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K246" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D247" s="0" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="E247" s="0" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F247" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="G247" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H247" s="0" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I247" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J247" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K247" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>236.2</v>
+      </c>
+      <c r="D248" s="0" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="E248" s="0" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="F248" s="0" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="G248" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H248" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="I248" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J248" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K248" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="D249" s="0" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="E249" s="0" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F249" s="0" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="G249" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H249" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I249" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J249" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="K249" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>252</v>
+      </c>
+      <c r="D250" s="0" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="E250" s="0" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="F250" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="G250" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H250" s="0" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="I250" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J250" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K250" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="D251" s="0" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="E251" s="0" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="F251" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G251" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H251" s="0" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="I251" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J251" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="K251" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="D252" s="0" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="E252" s="0" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F252" s="0" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G252" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H252" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="I252" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J252" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K252" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>207.3</v>
+      </c>
+      <c r="D253" s="0" t="n">
+        <v>88.9</v>
+      </c>
+      <c r="E253" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F253" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G253" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H253" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I253" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J253" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K253" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K253"/>
+  <dimension ref="A1:K262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A242" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C254" activeCellId="0" sqref="C254"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C263" activeCellId="0" sqref="C263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -9062,6 +9062,321 @@
         <v>14.9</v>
       </c>
       <c r="K253" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D254" s="0" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="E254" s="0" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="F254" s="0" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="G254" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H254" s="0" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I254" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J254" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K254" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D255" s="0" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E255" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F255" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G255" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H255" s="0" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="I255" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J255" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K255" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="D256" s="0" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="E256" s="0" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F256" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="G256" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H256" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I256" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J256" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K256" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="D257" s="0" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="E257" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F257" s="0" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="G257" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H257" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="I257" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J257" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K257" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>194.1</v>
+      </c>
+      <c r="D258" s="0" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="E258" s="0" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F258" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G258" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="H258" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I258" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J258" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K258" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="D259" s="0" t="n">
+        <v>82.6</v>
+      </c>
+      <c r="E259" s="0" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="F259" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G259" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H259" s="0" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="I259" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J259" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K259" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="D260" s="0" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E260" s="0" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F260" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G260" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H260" s="0" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="I260" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J260" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="K260" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="D261" s="0" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="E261" s="0" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="F261" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G261" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H261" s="0" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I261" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J261" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K261" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="n">
+        <v>44370</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="D262" s="0" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="E262" s="0" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="F262" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G262" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="H262" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="I262" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J262" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K262" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K262"/>
+  <dimension ref="A1:K271"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C263" activeCellId="0" sqref="C263"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A260" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C272" activeCellId="0" sqref="C272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -9377,6 +9377,321 @@
         <v>12.4</v>
       </c>
       <c r="K262" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="D263" s="0" t="n">
+        <v>78.4</v>
+      </c>
+      <c r="E263" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F263" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G263" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H263" s="0" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I263" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J263" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K263" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D264" s="0" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="E264" s="0" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F264" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G264" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H264" s="0" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="I264" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J264" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K264" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="D265" s="0" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="E265" s="0" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="F265" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G265" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="H265" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I265" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J265" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K265" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>247.5</v>
+      </c>
+      <c r="D266" s="0" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="E266" s="0" t="n">
+        <v>76.6</v>
+      </c>
+      <c r="F266" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="G266" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H266" s="0" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I266" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J266" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K266" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>217.7</v>
+      </c>
+      <c r="D267" s="0" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="E267" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="F267" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="G267" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H267" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I267" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J267" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K267" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="D268" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="E268" s="0" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F268" s="0" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="G268" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H268" s="0" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="I268" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J268" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K268" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="D269" s="0" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="E269" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F269" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G269" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H269" s="0" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="I269" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J269" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="K269" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="D270" s="0" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E270" s="0" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F270" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G270" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H270" s="0" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="I270" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J270" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="K270" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D271" s="0" t="n">
+        <v>64.4</v>
+      </c>
+      <c r="E271" s="0" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="F271" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="G271" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H271" s="0" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="I271" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J271" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K271" s="0" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K271"/>
+  <dimension ref="A1:K280"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A260" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C272" activeCellId="0" sqref="C272"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C281" activeCellId="0" sqref="C281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -9693,6 +9693,321 @@
       </c>
       <c r="K271" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>223.7</v>
+      </c>
+      <c r="D272" s="0" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="E272" s="0" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="F272" s="0" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="G272" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H272" s="0" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="I272" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J272" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K272" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="D273" s="0" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E273" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F273" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="G273" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H273" s="0" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="I273" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J273" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K273" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="D274" s="0" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="E274" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F274" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G274" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="H274" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="I274" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J274" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K274" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>277.2</v>
+      </c>
+      <c r="D275" s="0" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="E275" s="0" t="n">
+        <v>93.1</v>
+      </c>
+      <c r="F275" s="0" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="G275" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H275" s="0" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="I275" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J275" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="K275" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>273.2</v>
+      </c>
+      <c r="D276" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="E276" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F276" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G276" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H276" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I276" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J276" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K276" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>172.2</v>
+      </c>
+      <c r="D277" s="0" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="E277" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F277" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="G277" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="H277" s="0" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="I277" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J277" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K277" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>219.2</v>
+      </c>
+      <c r="D278" s="0" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="E278" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F278" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="G278" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H278" s="0" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="I278" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J278" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K278" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="D279" s="0" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="E279" s="0" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F279" s="0" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="G279" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H279" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I279" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J279" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K279" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="D280" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E280" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F280" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="G280" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H280" s="0" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="I280" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J280" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K280" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K280"/>
+  <dimension ref="A1:K289"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A269" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C281" activeCellId="0" sqref="C281"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A278" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C290" activeCellId="0" sqref="C290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -10008,6 +10008,294 @@
       </c>
       <c r="K280" s="0" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>333.9</v>
+      </c>
+      <c r="D281" s="0" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="E281" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F281" s="0" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="G281" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H281" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I281" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J281" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="D282" s="0" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="E282" s="0" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="F282" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="G282" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="H282" s="0" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="I282" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J282" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>353</v>
+      </c>
+      <c r="D283" s="0" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="E283" s="0" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="F283" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="G283" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H283" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="I283" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J283" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>373</v>
+      </c>
+      <c r="D284" s="0" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="E284" s="0" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="F284" s="0" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="G284" s="0" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H284" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="I284" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J284" s="0" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>350.3</v>
+      </c>
+      <c r="D285" s="0" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="E285" s="0" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="F285" s="0" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="G285" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H285" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="I285" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J285" s="0" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>258.8</v>
+      </c>
+      <c r="D286" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="E286" s="0" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="F286" s="0" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="G286" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="H286" s="0" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="I286" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J286" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="D287" s="0" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="E287" s="0" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F287" s="0" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="G287" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H287" s="0" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="I287" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J287" s="0" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>542.4</v>
+      </c>
+      <c r="D288" s="0" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="E288" s="0" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="F288" s="0" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="G288" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H288" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="I288" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J288" s="0" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="n">
+        <v>44391</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>208.6</v>
+      </c>
+      <c r="D289" s="0" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="E289" s="0" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F289" s="0" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="G289" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H289" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I289" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J289" s="0" t="n">
+        <v>10.6</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K289"/>
+  <dimension ref="A1:K298"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A278" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C290" activeCellId="0" sqref="C290"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A287" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C299" activeCellId="0" sqref="C299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -10296,6 +10296,294 @@
       </c>
       <c r="J289" s="0" t="n">
         <v>10.6</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>431.8</v>
+      </c>
+      <c r="D290" s="0" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="E290" s="0" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="F290" s="0" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="G290" s="0" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H290" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="I290" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J290" s="0" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>323.4</v>
+      </c>
+      <c r="D291" s="0" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="E291" s="0" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="F291" s="0" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="G291" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H291" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I291" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J291" s="0" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>469.3</v>
+      </c>
+      <c r="D292" s="0" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E292" s="0" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="F292" s="0" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="G292" s="0" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="H292" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I292" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J292" s="0" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>447.1</v>
+      </c>
+      <c r="D293" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="E293" s="0" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="F293" s="0" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="G293" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H293" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I293" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J293" s="0" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>368.9</v>
+      </c>
+      <c r="D294" s="0" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="E294" s="0" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="F294" s="0" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="G294" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H294" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I294" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J294" s="0" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>398.1</v>
+      </c>
+      <c r="D295" s="0" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="E295" s="0" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="F295" s="0" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="G295" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H295" s="0" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="I295" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J295" s="0" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="D296" s="0" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="E296" s="0" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F296" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G296" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H296" s="0" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="I296" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J296" s="0" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>710.5</v>
+      </c>
+      <c r="D297" s="0" t="n">
+        <v>332.8</v>
+      </c>
+      <c r="E297" s="0" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="F297" s="0" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="G297" s="0" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H297" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="I297" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J297" s="0" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>280.8</v>
+      </c>
+      <c r="D298" s="0" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="E298" s="0" t="n">
+        <v>79.6</v>
+      </c>
+      <c r="F298" s="0" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="G298" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H298" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I298" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J298" s="0" t="n">
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K298"/>
+  <dimension ref="A1:K307"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A287" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C299" activeCellId="0" sqref="C299"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C308" activeCellId="0" sqref="C308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -10584,6 +10584,294 @@
       </c>
       <c r="J298" s="0" t="n">
         <v>9.5</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>551.7</v>
+      </c>
+      <c r="D299" s="0" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="E299" s="0" t="n">
+        <v>200.3</v>
+      </c>
+      <c r="F299" s="0" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G299" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="H299" s="0" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I299" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J299" s="0" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>498.1</v>
+      </c>
+      <c r="D300" s="0" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="E300" s="0" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="F300" s="0" t="n">
+        <v>94.4</v>
+      </c>
+      <c r="G300" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H300" s="0" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="I300" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J300" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C301" s="0" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="D301" s="0" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="E301" s="0" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="F301" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="G301" s="0" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H301" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="I301" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J301" s="0" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302" s="0" t="n">
+        <v>597.2</v>
+      </c>
+      <c r="D302" s="0" t="n">
+        <v>297.3</v>
+      </c>
+      <c r="E302" s="0" t="n">
+        <v>275.9</v>
+      </c>
+      <c r="F302" s="0" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="G302" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H302" s="0" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="I302" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J302" s="0" t="n">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" s="0" t="n">
+        <v>408.5</v>
+      </c>
+      <c r="D303" s="0" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="E303" s="0" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="F303" s="0" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="G303" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H303" s="0" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="I303" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J303" s="0" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C304" s="0" t="n">
+        <v>526.8</v>
+      </c>
+      <c r="D304" s="0" t="n">
+        <v>254.6</v>
+      </c>
+      <c r="E304" s="0" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="F304" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G304" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H304" s="0" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="I304" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J304" s="0" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>400.2</v>
+      </c>
+      <c r="D305" s="0" t="n">
+        <v>208.3</v>
+      </c>
+      <c r="E305" s="0" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="F305" s="0" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="G305" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H305" s="0" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="I305" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J305" s="0" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>833.6</v>
+      </c>
+      <c r="D306" s="0" t="n">
+        <v>378.2</v>
+      </c>
+      <c r="E306" s="0" t="n">
+        <v>327.5</v>
+      </c>
+      <c r="F306" s="0" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="G306" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H306" s="0" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I306" s="0" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="J306" s="0" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>407.1</v>
+      </c>
+      <c r="D307" s="0" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="E307" s="0" t="n">
+        <v>112.2</v>
+      </c>
+      <c r="F307" s="0" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="G307" s="0" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H307" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I307" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J307" s="0" t="n">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K307"/>
+  <dimension ref="A1:K316"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A296" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C308" activeCellId="0" sqref="C308"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A305" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I309" activeCellId="0" sqref="I309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -10872,6 +10872,294 @@
       </c>
       <c r="J307" s="0" t="n">
         <v>10.5</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>582.2</v>
+      </c>
+      <c r="D308" s="0" t="n">
+        <v>255.2</v>
+      </c>
+      <c r="E308" s="0" t="n">
+        <v>244.8</v>
+      </c>
+      <c r="F308" s="0" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="G308" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="H308" s="0" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I308" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="J308" s="0" t="n">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>576.8</v>
+      </c>
+      <c r="D309" s="0" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="E309" s="0" t="n">
+        <v>244.8</v>
+      </c>
+      <c r="F309" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="G309" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H309" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="I309" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="J309" s="0" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>607.3</v>
+      </c>
+      <c r="D310" s="0" t="n">
+        <v>265.7</v>
+      </c>
+      <c r="E310" s="0" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="F310" s="0" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="G310" s="0" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="H310" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I310" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J310" s="0" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>574.1</v>
+      </c>
+      <c r="D311" s="0" t="n">
+        <v>230.9</v>
+      </c>
+      <c r="E311" s="0" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="F311" s="0" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="G311" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H311" s="0" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="I311" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J311" s="0" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>435.3</v>
+      </c>
+      <c r="D312" s="0" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E312" s="0" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="F312" s="0" t="n">
+        <v>78.6</v>
+      </c>
+      <c r="G312" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H312" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="I312" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J312" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="D313" s="0" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="E313" s="0" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="F313" s="0" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="G313" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H313" s="0" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="I313" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J313" s="0" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>529.2</v>
+      </c>
+      <c r="D314" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="E314" s="0" t="n">
+        <v>173.7</v>
+      </c>
+      <c r="F314" s="0" t="n">
+        <v>94.6</v>
+      </c>
+      <c r="G314" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="H314" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="I314" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J314" s="0" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>762.3</v>
+      </c>
+      <c r="D315" s="0" t="n">
+        <v>305.1</v>
+      </c>
+      <c r="E315" s="0" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="F315" s="0" t="n">
+        <v>140.8</v>
+      </c>
+      <c r="G315" s="0" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="H315" s="0" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="I315" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J315" s="0" t="n">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>495.2</v>
+      </c>
+      <c r="D316" s="0" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="E316" s="0" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="F316" s="0" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="G316" s="0" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H316" s="0" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="I316" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J316" s="0" t="n">
+        <v>10.8</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K316"/>
+  <dimension ref="A1:K325"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A305" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I309" activeCellId="0" sqref="I309"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A314" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C326" activeCellId="0" sqref="C326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -11160,6 +11160,294 @@
       </c>
       <c r="J316" s="0" t="n">
         <v>10.8</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" s="0" t="n">
+        <v>524.3</v>
+      </c>
+      <c r="D317" s="0" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="E317" s="0" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="F317" s="0" t="n">
+        <v>118.5</v>
+      </c>
+      <c r="G317" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H317" s="0" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I317" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J317" s="0" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>521.3</v>
+      </c>
+      <c r="D318" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="E318" s="0" t="n">
+        <v>283.1</v>
+      </c>
+      <c r="F318" s="0" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="G318" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H318" s="0" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="I318" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J318" s="0" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" s="0" t="n">
+        <v>533.7</v>
+      </c>
+      <c r="D319" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="E319" s="0" t="n">
+        <v>241.2</v>
+      </c>
+      <c r="F319" s="0" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G319" s="0" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H319" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="I319" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J319" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C320" s="0" t="n">
+        <v>459</v>
+      </c>
+      <c r="D320" s="0" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="E320" s="0" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="F320" s="0" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="G320" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H320" s="0" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="I320" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J320" s="0" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321" s="0" t="n">
+        <v>404.6</v>
+      </c>
+      <c r="D321" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="E321" s="0" t="n">
+        <v>241.7</v>
+      </c>
+      <c r="F321" s="0" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="G321" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H321" s="0" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="I321" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J321" s="0" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C322" s="0" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="D322" s="0" t="n">
+        <v>276.6</v>
+      </c>
+      <c r="E322" s="0" t="n">
+        <v>275.7</v>
+      </c>
+      <c r="F322" s="0" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="G322" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H322" s="0" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="I322" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J322" s="0" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C323" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="D323" s="0" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E323" s="0" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="F323" s="0" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="G323" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H323" s="0" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="I323" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="J323" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324" s="0" t="n">
+        <v>599.3</v>
+      </c>
+      <c r="D324" s="0" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="E324" s="0" t="n">
+        <v>312.8</v>
+      </c>
+      <c r="F324" s="0" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="G324" s="0" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H324" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I324" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="J324" s="0" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C325" s="0" t="n">
+        <v>494.4</v>
+      </c>
+      <c r="D325" s="0" t="n">
+        <v>200.2</v>
+      </c>
+      <c r="E325" s="0" t="n">
+        <v>238.2</v>
+      </c>
+      <c r="F325" s="0" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="G325" s="0" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="H325" s="0" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="I325" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J325" s="0" t="n">
+        <v>12.7</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K325"/>
+  <dimension ref="A1:K334"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A314" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C326" activeCellId="0" sqref="C326"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A323" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C335" activeCellId="0" sqref="C335"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -11448,6 +11448,294 @@
       </c>
       <c r="J325" s="0" t="n">
         <v>12.7</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326" s="0" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="D326" s="0" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="E326" s="0" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="F326" s="0" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="G326" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H326" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="I326" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J326" s="0" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" s="0" t="n">
+        <v>364.6</v>
+      </c>
+      <c r="D327" s="0" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="E327" s="0" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="F327" s="0" t="n">
+        <v>70.3</v>
+      </c>
+      <c r="G327" s="0" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H327" s="0" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="I327" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J327" s="0" t="n">
+        <v>9.7</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328" s="0" t="n">
+        <v>370.3</v>
+      </c>
+      <c r="D328" s="0" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="E328" s="0" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="F328" s="0" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="G328" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H328" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I328" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J328" s="0" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" s="0" t="n">
+        <v>335.8</v>
+      </c>
+      <c r="D329" s="0" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="E329" s="0" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="F329" s="0" t="n">
+        <v>87.1</v>
+      </c>
+      <c r="G329" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H329" s="0" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="I329" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J329" s="0" t="n">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C330" s="0" t="n">
+        <v>307.7</v>
+      </c>
+      <c r="D330" s="0" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="E330" s="0" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="F330" s="0" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="G330" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H330" s="0" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="I330" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J330" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C331" s="0" t="n">
+        <v>468.3</v>
+      </c>
+      <c r="D331" s="0" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="E331" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="F331" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="G331" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H331" s="0" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="I331" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J331" s="0" t="n">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C332" s="0" t="n">
+        <v>422.1</v>
+      </c>
+      <c r="D332" s="0" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="E332" s="0" t="n">
+        <v>242.2</v>
+      </c>
+      <c r="F332" s="0" t="n">
+        <v>85.6</v>
+      </c>
+      <c r="G332" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H332" s="0" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="I332" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="J332" s="0" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C333" s="0" t="n">
+        <v>407.2</v>
+      </c>
+      <c r="D333" s="0" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="E333" s="0" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="F333" s="0" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="G333" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H333" s="0" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="I333" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J333" s="0" t="n">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C334" s="0" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="D334" s="0" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="E334" s="0" t="n">
+        <v>221.3</v>
+      </c>
+      <c r="F334" s="0" t="n">
+        <v>90.1</v>
+      </c>
+      <c r="G334" s="0" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H334" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I334" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J334" s="0" t="n">
+        <v>12.3</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K343"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A323" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C335" activeCellId="0" sqref="C335"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A330" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C344" activeCellId="0" sqref="C344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -11736,6 +11736,294 @@
       </c>
       <c r="J334" s="0" t="n">
         <v>12.3</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C335" s="0" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="D335" s="0" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="E335" s="0" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="F335" s="0" t="n">
+        <v>89.4</v>
+      </c>
+      <c r="G335" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H335" s="0" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="I335" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J335" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="0" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="D336" s="0" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="E336" s="0" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="F336" s="0" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="G336" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H336" s="0" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="I336" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J336" s="0" t="n">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C337" s="0" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="D337" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="E337" s="0" t="n">
+        <v>170.3</v>
+      </c>
+      <c r="F337" s="0" t="n">
+        <v>73.9</v>
+      </c>
+      <c r="G337" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H337" s="0" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="I337" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J337" s="0" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C338" s="0" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="D338" s="0" t="n">
+        <v>95.1</v>
+      </c>
+      <c r="E338" s="0" t="n">
+        <v>178.2</v>
+      </c>
+      <c r="F338" s="0" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="G338" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H338" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I338" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J338" s="0" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C339" s="0" t="n">
+        <v>232.9</v>
+      </c>
+      <c r="D339" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="E339" s="0" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F339" s="0" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="G339" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H339" s="0" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="I339" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J339" s="0" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C340" s="0" t="n">
+        <v>363.2</v>
+      </c>
+      <c r="D340" s="0" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="E340" s="0" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="F340" s="0" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="G340" s="0" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H340" s="0" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="I340" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J340" s="0" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C341" s="0" t="n">
+        <v>279.5</v>
+      </c>
+      <c r="D341" s="0" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="E341" s="0" t="n">
+        <v>202.3</v>
+      </c>
+      <c r="F341" s="0" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="G341" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H341" s="0" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="I341" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J341" s="0" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C342" s="0" t="n">
+        <v>271.2</v>
+      </c>
+      <c r="D342" s="0" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="E342" s="0" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="F342" s="0" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="G342" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H342" s="0" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="I342" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J342" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="n">
+        <v>44433</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" s="0" t="n">
+        <v>352.3</v>
+      </c>
+      <c r="D343" s="0" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="E343" s="0" t="n">
+        <v>246.9</v>
+      </c>
+      <c r="F343" s="0" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="G343" s="0" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="H343" s="0" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="I343" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J343" s="0" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K343"/>
+  <dimension ref="A1:K361"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A330" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C344" activeCellId="0" sqref="C344"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A348" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C362" activeCellId="0" sqref="C362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -12024,6 +12024,582 @@
       </c>
       <c r="J343" s="0" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" s="0" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="D344" s="0" t="n">
+        <v>69.4</v>
+      </c>
+      <c r="E344" s="0" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="F344" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="G344" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H344" s="0" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="I344" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J344" s="0" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C345" s="0" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="D345" s="0" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="E345" s="0" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="F345" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="G345" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="H345" s="0" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="I345" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J345" s="0" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C346" s="0" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="D346" s="0" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="E346" s="0" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="F346" s="0" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="G346" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H346" s="0" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="I346" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J346" s="0" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C347" s="0" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="D347" s="0" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="E347" s="0" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="F347" s="0" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="G347" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H347" s="0" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="I347" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J347" s="0" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C348" s="0" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="D348" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E348" s="0" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="F348" s="0" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="G348" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H348" s="0" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="I348" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J348" s="0" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C349" s="0" t="n">
+        <v>281.3</v>
+      </c>
+      <c r="D349" s="0" t="n">
+        <v>96.9</v>
+      </c>
+      <c r="E349" s="0" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="F349" s="0" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="G349" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H349" s="0" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="I349" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J349" s="0" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C350" s="0" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="D350" s="0" t="n">
+        <v>66.4</v>
+      </c>
+      <c r="E350" s="0" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="F350" s="0" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="G350" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H350" s="0" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="I350" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J350" s="0" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C351" s="0" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="D351" s="0" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="E351" s="0" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="F351" s="0" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="G351" s="0" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H351" s="0" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="I351" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J351" s="0" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C352" s="0" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="D352" s="0" t="n">
+        <v>88.6</v>
+      </c>
+      <c r="E352" s="0" t="n">
+        <v>212.4</v>
+      </c>
+      <c r="F352" s="0" t="n">
+        <v>64.9</v>
+      </c>
+      <c r="G352" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H352" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I352" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J352" s="0" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" s="0" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="D353" s="0" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="E353" s="0" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="F353" s="0" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="G353" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H353" s="0" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="I353" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J353" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C354" s="0" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D354" s="0" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="E354" s="0" t="n">
+        <v>89.9</v>
+      </c>
+      <c r="F354" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="G354" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H354" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="I354" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J354" s="0" t="n">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355" s="0" t="n">
+        <v>93.6</v>
+      </c>
+      <c r="D355" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E355" s="0" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F355" s="0" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="G355" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H355" s="0" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="I355" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J355" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C356" s="0" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D356" s="0" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="E356" s="0" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="F356" s="0" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="G356" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H356" s="0" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="I356" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J356" s="0" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C357" s="0" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="D357" s="0" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E357" s="0" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="F357" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G357" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H357" s="0" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="I357" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J357" s="0" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C358" s="0" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="D358" s="0" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="E358" s="0" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="F358" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="G358" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H358" s="0" t="n">
+        <v>80.1</v>
+      </c>
+      <c r="I358" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J358" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359" s="0" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="D359" s="0" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E359" s="0" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="F359" s="0" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="G359" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H359" s="0" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="I359" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J359" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C360" s="0" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="D360" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="E360" s="0" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F360" s="0" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="G360" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H360" s="0" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="I360" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J360" s="0" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C361" s="0" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="D361" s="0" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="E361" s="0" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="F361" s="0" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="G361" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H361" s="0" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="I361" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J361" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K361"/>
+  <dimension ref="A1:K370"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A348" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C362" activeCellId="0" sqref="C362"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A357" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C371" activeCellId="0" sqref="C371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -12600,6 +12600,294 @@
       </c>
       <c r="J361" s="0" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="D362" s="0" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="E362" s="0" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="G362" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H362" s="0" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="I362" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J362" s="0" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C363" s="0" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="D363" s="0" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="E363" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="F363" s="0" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="G363" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H363" s="0" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="I363" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J363" s="0" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C364" s="0" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="D364" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E364" s="0" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="F364" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G364" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H364" s="0" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="I364" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J364" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C365" s="0" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D365" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E365" s="0" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="F365" s="0" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G365" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H365" s="0" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="I365" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J365" s="0" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C366" s="0" t="n">
+        <v>75.9</v>
+      </c>
+      <c r="D366" s="0" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E366" s="0" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="F366" s="0" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="G366" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H366" s="0" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="I366" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J366" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C367" s="0" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="D367" s="0" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="E367" s="0" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="F367" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G367" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H367" s="0" t="n">
+        <v>84.1</v>
+      </c>
+      <c r="I367" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J367" s="0" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D368" s="0" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E368" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="F368" s="0" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="G368" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H368" s="0" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="I368" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J368" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C369" s="0" t="n">
+        <v>88.4</v>
+      </c>
+      <c r="D369" s="0" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E369" s="0" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="F369" s="0" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="G369" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="H369" s="0" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="I369" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J369" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="n">
+        <v>44454</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C370" s="0" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D370" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E370" s="0" t="n">
+        <v>95.9</v>
+      </c>
+      <c r="F370" s="0" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="G370" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H370" s="0" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="I370" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J370" s="0" t="n">
+        <v>8.6</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K370"/>
+  <dimension ref="A1:K379"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A357" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C371" activeCellId="0" sqref="C371"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C380" activeCellId="0" sqref="C380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -12888,6 +12888,294 @@
       </c>
       <c r="J370" s="0" t="n">
         <v>8.6</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="0" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="D371" s="0" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="E371" s="0" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="F371" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G371" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H371" s="0" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="I371" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J371" s="0" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" s="0" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D372" s="0" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E372" s="0" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F372" s="0" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G372" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H372" s="0" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="I372" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J372" s="0" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373" s="0" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="D373" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E373" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="F373" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G373" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H373" s="0" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="I373" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J373" s="0" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C374" s="0" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D374" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E374" s="0" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="F374" s="0" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="G374" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H374" s="0" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="I374" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J374" s="0" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C375" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="D375" s="0" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E375" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="F375" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="G375" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H375" s="0" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="I375" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J375" s="0" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C376" s="0" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="D376" s="0" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="E376" s="0" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="F376" s="0" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="G376" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H376" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="I376" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J376" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C377" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="D377" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E377" s="0" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F377" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="G377" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H377" s="0" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="I377" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J377" s="0" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C378" s="0" t="n">
+        <v>69.9</v>
+      </c>
+      <c r="D378" s="0" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E378" s="0" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="F378" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="G378" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H378" s="0" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="I378" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J378" s="0" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="n">
+        <v>44461</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C379" s="0" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="D379" s="0" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E379" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="F379" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G379" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H379" s="0" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="I379" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J379" s="0" t="n">
+        <v>7.6</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K379"/>
+  <dimension ref="A1:K388"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A367" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C380" activeCellId="0" sqref="C380"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A376" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C389" activeCellId="0" sqref="C389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -13176,6 +13176,294 @@
       </c>
       <c r="J379" s="0" t="n">
         <v>7.6</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C380" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D380" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E380" s="0" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F380" s="0" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="G380" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H380" s="0" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I380" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J380" s="0" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C381" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D381" s="0" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E381" s="0" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F381" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="G381" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H381" s="0" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="I381" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J381" s="0" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C382" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D382" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E382" s="0" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="F382" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G382" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H382" s="0" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="I382" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J382" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C383" s="0" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D383" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E383" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F383" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G383" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H383" s="0" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="I383" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J383" s="0" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C384" s="0" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D384" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E384" s="0" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="F384" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G384" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H384" s="0" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="I384" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J384" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C385" s="0" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="D385" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="E385" s="0" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="F385" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G385" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H385" s="0" t="n">
+        <v>64.1</v>
+      </c>
+      <c r="I385" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J385" s="0" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C386" s="0" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D386" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E386" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="F386" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G386" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H386" s="0" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="I386" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J386" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C387" s="0" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D387" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E387" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="F387" s="0" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="G387" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H387" s="0" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="I387" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J387" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="n">
+        <v>44468</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C388" s="0" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="D388" s="0" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="E388" s="0" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="F388" s="0" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="G388" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H388" s="0" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="I388" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J388" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K388"/>
+  <dimension ref="A1:K397"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A376" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C389" activeCellId="0" sqref="C389"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C398" activeCellId="0" sqref="C398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -13464,6 +13464,294 @@
       </c>
       <c r="J388" s="0" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C389" s="0" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="D389" s="0" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E389" s="0" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F389" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G389" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H389" s="0" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="I389" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J389" s="0" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C390" s="0" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D390" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E390" s="0" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="F390" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="G390" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H390" s="0" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="I390" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J390" s="0" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C391" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D391" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E391" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F391" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G391" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H391" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="I391" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J391" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C392" s="0" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="D392" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E392" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F392" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G392" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H392" s="0" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="I392" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J392" s="0" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C393" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D393" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="E393" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F393" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G393" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H393" s="0" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="I393" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J393" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C394" s="0" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D394" s="0" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E394" s="0" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="F394" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G394" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H394" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="I394" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J394" s="0" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C395" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="D395" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="E395" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F395" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G395" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H395" s="0" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="I395" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J395" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C396" s="0" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="D396" s="0" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="E396" s="0" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="F396" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G396" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H396" s="0" t="n">
+        <v>73.9</v>
+      </c>
+      <c r="I396" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J396" s="0" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="n">
+        <v>44475</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C397" s="0" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="D397" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E397" s="0" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="F397" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="G397" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H397" s="0" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="I397" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J397" s="0" t="n">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K397"/>
+  <dimension ref="A1:K406"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A382" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C398" activeCellId="0" sqref="C398"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C407" activeCellId="0" sqref="C407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -13752,6 +13752,294 @@
       </c>
       <c r="J397" s="0" t="n">
         <v>4.9</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C398" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D398" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E398" s="0" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="F398" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G398" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H398" s="0" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="I398" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J398" s="0" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399" s="0" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D399" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E399" s="0" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="F399" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="G399" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H399" s="0" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="I399" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J399" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C400" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D400" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E400" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F400" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G400" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H400" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I400" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J400" s="0" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C401" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D401" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E401" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F401" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G401" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H401" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I401" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J401" s="0" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C402" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D402" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="E402" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F402" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G402" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H402" s="0" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="I402" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J402" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C403" s="0" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="D403" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="E403" s="0" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="F403" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G403" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H403" s="0" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="I403" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J403" s="0" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C404" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D404" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E404" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F404" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G404" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H404" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="I404" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J404" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C405" s="0" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D405" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E405" s="0" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="F405" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G405" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H405" s="0" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="I405" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J405" s="0" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="2" t="n">
+        <v>44482</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406" s="0" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D406" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="E406" s="0" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F406" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G406" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H406" s="0" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="I406" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J406" s="0" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K406"/>
+  <dimension ref="A1:K415"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C407" activeCellId="0" sqref="C407"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C416" activeCellId="0" sqref="C416"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -14040,6 +14040,294 @@
       </c>
       <c r="J406" s="0" t="n">
         <v>3.8</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C407" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D407" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E407" s="0" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="F407" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G407" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H407" s="0" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="I407" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J407" s="0" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C408" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="D408" s="0" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="E408" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="F408" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="G408" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H408" s="0" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="I408" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J408" s="0" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C409" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D409" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E409" s="0" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F409" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G409" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H409" s="0" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="I409" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J409" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C410" s="0" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="D410" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E410" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F410" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G410" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H410" s="0" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="I410" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J410" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C411" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D411" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E411" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="F411" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G411" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H411" s="0" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="I411" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J411" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C412" s="0" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D412" s="0" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E412" s="0" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="F412" s="0" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G412" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H412" s="0" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="I412" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J412" s="0" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C413" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D413" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E413" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F413" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="G413" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H413" s="0" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="I413" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J413" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C414" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D414" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E414" s="0" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="F414" s="0" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G414" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H414" s="0" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="I414" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J414" s="0" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C415" s="0" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D415" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E415" s="0" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="F415" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="G415" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H415" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="I415" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J415" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K415"/>
+  <dimension ref="A1:K424"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A400" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C416" activeCellId="0" sqref="C416"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C425" activeCellId="0" sqref="C425"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -14328,6 +14328,294 @@
       </c>
       <c r="J415" s="0" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C416" s="0" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D416" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E416" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F416" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="G416" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H416" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="I416" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J416" s="0" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417" s="0" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="D417" s="0" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="E417" s="0" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="F417" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="G417" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H417" s="0" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="I417" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J417" s="0" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C418" s="0" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="D418" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="E418" s="0" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="F418" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G418" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H418" s="0" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="I418" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J418" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C419" s="0" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D419" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E419" s="0" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F419" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G419" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H419" s="0" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="I419" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J419" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C420" s="0" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D420" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E420" s="0" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="F420" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G420" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H420" s="0" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="I420" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J420" s="0" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C421" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="D421" s="0" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E421" s="0" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="F421" s="0" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G421" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H421" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="I421" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J421" s="0" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C422" s="0" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D422" s="0" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E422" s="0" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="F422" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G422" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H422" s="0" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="I422" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J422" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C423" s="0" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D423" s="0" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E423" s="0" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="F423" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="G423" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H423" s="0" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="I423" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J423" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="2" t="n">
+        <v>44496</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C424" s="0" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="D424" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E424" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="F424" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G424" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H424" s="0" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="I424" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J424" s="0" t="n">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K424"/>
+  <dimension ref="A1:K433"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C425" activeCellId="0" sqref="C425"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A415" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C434" activeCellId="0" sqref="C434"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -14616,6 +14616,294 @@
       </c>
       <c r="J424" s="0" t="n">
         <v>1.9</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="0" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D425" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E425" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F425" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G425" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H425" s="0" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="I425" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J425" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C426" s="0" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D426" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E426" s="0" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="F426" s="0" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="G426" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H426" s="0" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="I426" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J426" s="0" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C427" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="D427" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="E427" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="F427" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G427" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H427" s="0" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="I427" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J427" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C428" s="0" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D428" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E428" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="F428" s="0" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="G428" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H428" s="0" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="I428" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J428" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C429" s="0" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="D429" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E429" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F429" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G429" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H429" s="0" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="I429" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J429" s="0" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C430" s="0" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="D430" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="E430" s="0" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F430" s="0" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="G430" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H430" s="0" t="n">
+        <v>76.9</v>
+      </c>
+      <c r="I430" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J430" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C431" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D431" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E431" s="0" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="F431" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G431" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H431" s="0" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="I431" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J431" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C432" s="0" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="D432" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E432" s="0" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="F432" s="0" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G432" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H432" s="0" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="I432" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J432" s="0" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="n">
+        <v>44503</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C433" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D433" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E433" s="0" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F433" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G433" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H433" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="I433" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J433" s="0" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="24">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -226,13 +226,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K433"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A415" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C434" activeCellId="0" sqref="C434"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A421" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C443" activeCellId="0" sqref="C443"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
   </cols>
@@ -14903,6 +14903,294 @@
         <v>0.7</v>
       </c>
       <c r="J433" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" s="0" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="D434" s="0" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E434" s="0" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="F434" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="G434" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H434" s="0" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="I434" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J434" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C435" s="0" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="D435" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="E435" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="F435" s="0" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="G435" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H435" s="0" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="I435" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J435" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C436" s="0" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="D436" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E436" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F436" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="G436" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H436" s="0" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="I436" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J436" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C437" s="0" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D437" s="0" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E437" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="F437" s="0" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="G437" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H437" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="I437" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J437" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C438" s="0" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="D438" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E438" s="0" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F438" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G438" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H438" s="0" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="I438" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J438" s="0" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C439" s="0" t="n">
+        <v>77.4</v>
+      </c>
+      <c r="D439" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E439" s="0" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F439" s="0" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="G439" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H439" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="I439" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J439" s="0" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C440" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="D440" s="0" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E440" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F440" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="G440" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H440" s="0" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="I440" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J440" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C441" s="0" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D441" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E441" s="0" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F441" s="0" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="G441" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H441" s="0" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="I441" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J441" s="0" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="2" t="n">
+        <v>44507</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C442" s="0" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D442" s="0" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E442" s="0" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F442" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G442" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H442" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="I442" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J442" s="0" t="n">
         <v>1.1</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">UCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosp_100.000hab_7d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCI_100.000hab_7d</t>
   </si>
   <si>
     <t xml:space="preserve">Riesgo</t>
@@ -226,15 +232,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:M442"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A421" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C443" activeCellId="0" sqref="C443"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,13 +277,19 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>307.6</v>
@@ -303,13 +315,15 @@
       <c r="J2" s="3" t="n">
         <v>23.6</v>
       </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>328.5</v>
@@ -335,13 +349,15 @@
       <c r="J3" s="4" t="n">
         <v>23.4</v>
       </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>377.5</v>
@@ -367,13 +383,15 @@
       <c r="J4" s="4" t="n">
         <v>24.8</v>
       </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>262.7</v>
@@ -399,13 +417,15 @@
       <c r="J5" s="4" t="n">
         <v>21.2</v>
       </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>406.4</v>
@@ -431,13 +451,15 @@
       <c r="J6" s="4" t="n">
         <v>45.5</v>
       </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>362.4</v>
@@ -463,13 +485,15 @@
       <c r="J7" s="4" t="n">
         <v>24.7</v>
       </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>412.7</v>
@@ -495,13 +519,15 @@
       <c r="J8" s="4" t="n">
         <v>12.7</v>
       </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>208</v>
@@ -527,13 +553,15 @@
       <c r="J9" s="4" t="n">
         <v>10.8</v>
       </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>249.2</v>
@@ -559,13 +587,15 @@
       <c r="J10" s="4" t="n">
         <v>27</v>
       </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>44172</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>195.1</v>
@@ -591,8 +621,10 @@
       <c r="J11" s="4" t="n">
         <v>21.5</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,7 +632,7 @@
         <v>44172</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>239.7</v>
@@ -626,8 +658,10 @@
       <c r="J12" s="4" t="n">
         <v>22.9</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>20</v>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,7 +669,7 @@
         <v>44172</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>263.4</v>
@@ -661,8 +695,10 @@
       <c r="J13" s="4" t="n">
         <v>18.1</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,7 +706,7 @@
         <v>44172</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>195.8</v>
@@ -696,8 +732,10 @@
       <c r="J14" s="4" t="n">
         <v>21.9</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -705,7 +743,7 @@
         <v>44172</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>198.3</v>
@@ -731,8 +769,10 @@
       <c r="J15" s="4" t="n">
         <v>37.7</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>20</v>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,7 +780,7 @@
         <v>44172</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>252.6</v>
@@ -766,8 +806,10 @@
       <c r="J16" s="4" t="n">
         <v>23.3</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>20</v>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +817,7 @@
         <v>44172</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>269.3</v>
@@ -801,8 +843,10 @@
       <c r="J17" s="4" t="n">
         <v>26.1</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>21</v>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +854,7 @@
         <v>44172</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>145.6</v>
@@ -836,8 +880,10 @@
       <c r="J18" s="4" t="n">
         <v>9.4</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>22</v>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,7 +891,7 @@
         <v>44172</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>129.8</v>
@@ -871,8 +917,10 @@
       <c r="J19" s="4" t="n">
         <v>22.5</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>22</v>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,7 +928,7 @@
         <v>44179</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>149.4</v>
@@ -906,8 +954,8 @@
       <c r="J20" s="0" t="n">
         <v>17.3</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>20</v>
+      <c r="M20" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -915,7 +963,7 @@
         <v>44179</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>183.9</v>
@@ -941,8 +989,10 @@
       <c r="J21" s="5" t="n">
         <v>18.9</v>
       </c>
-      <c r="K21" s="0" t="s">
-        <v>20</v>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,7 +1000,7 @@
         <v>44179</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" s="5" t="n">
         <v>193</v>
@@ -976,8 +1026,10 @@
       <c r="J22" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="K22" s="0" t="s">
-        <v>20</v>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -985,7 +1037,7 @@
         <v>44179</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5" t="n">
         <v>163.5</v>
@@ -1011,8 +1063,10 @@
       <c r="J23" s="5" t="n">
         <v>15.9</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>20</v>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,7 +1074,7 @@
         <v>44179</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C24" s="5" t="n">
         <v>131.3</v>
@@ -1046,8 +1100,10 @@
       <c r="J24" s="5" t="n">
         <v>28.1</v>
       </c>
-      <c r="K24" s="0" t="s">
-        <v>20</v>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1111,7 @@
         <v>44179</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>200.4</v>
@@ -1081,8 +1137,10 @@
       <c r="J25" s="5" t="n">
         <v>17.8</v>
       </c>
-      <c r="K25" s="0" t="s">
-        <v>20</v>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,7 +1148,7 @@
         <v>44179</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" s="5" t="n">
         <v>235</v>
@@ -1116,8 +1174,10 @@
       <c r="J26" s="5" t="n">
         <v>21.8</v>
       </c>
-      <c r="K26" s="0" t="s">
-        <v>20</v>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,7 +1185,7 @@
         <v>44179</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5" t="n">
         <v>110.2</v>
@@ -1151,8 +1211,10 @@
       <c r="J27" s="5" t="n">
         <v>8.3</v>
       </c>
-      <c r="K27" s="0" t="s">
-        <v>22</v>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,7 +1222,7 @@
         <v>44179</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C28" s="5" t="n">
         <v>100</v>
@@ -1186,8 +1248,10 @@
       <c r="J28" s="5" t="n">
         <v>15.8</v>
       </c>
-      <c r="K28" s="0" t="s">
-        <v>22</v>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,7 +1259,7 @@
         <v>44185</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="n">
         <v>138.7</v>
@@ -1221,8 +1285,10 @@
       <c r="J29" s="5" t="n">
         <v>15.9</v>
       </c>
-      <c r="K29" s="0" t="s">
-        <v>20</v>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,7 +1296,7 @@
         <v>44185</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5" t="n">
         <v>181.5</v>
@@ -1256,8 +1322,10 @@
       <c r="J30" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="K30" s="0" t="s">
-        <v>20</v>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1265,7 +1333,7 @@
         <v>44185</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" s="5" t="n">
         <v>160.9</v>
@@ -1291,8 +1359,10 @@
       <c r="J31" s="5" t="n">
         <v>14.7</v>
       </c>
-      <c r="K31" s="0" t="s">
-        <v>22</v>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,7 +1370,7 @@
         <v>44185</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="5" t="n">
         <v>139.2</v>
@@ -1326,8 +1396,10 @@
       <c r="J32" s="5" t="n">
         <v>11.9</v>
       </c>
-      <c r="K32" s="0" t="s">
-        <v>22</v>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1407,7 @@
         <v>44185</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33" s="5" t="n">
         <v>141.4</v>
@@ -1361,8 +1433,10 @@
       <c r="J33" s="5" t="n">
         <v>21.6</v>
       </c>
-      <c r="K33" s="0" t="s">
-        <v>20</v>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,7 +1444,7 @@
         <v>44185</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34" s="5" t="n">
         <v>161.7</v>
@@ -1396,8 +1470,10 @@
       <c r="J34" s="5" t="n">
         <v>13.7</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>22</v>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,7 +1481,7 @@
         <v>44185</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C35" s="5" t="n">
         <v>230.9</v>
@@ -1431,8 +1507,10 @@
       <c r="J35" s="5" t="n">
         <v>22.1</v>
       </c>
-      <c r="K35" s="0" t="s">
-        <v>20</v>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1518,7 @@
         <v>44185</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C36" s="5" t="n">
         <v>113.1</v>
@@ -1466,8 +1544,10 @@
       <c r="J36" s="5" t="n">
         <v>9.5</v>
       </c>
-      <c r="K36" s="0" t="s">
-        <v>23</v>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1475,7 +1555,7 @@
         <v>44185</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>89.1</v>
@@ -1501,8 +1581,10 @@
       <c r="J37" s="5" t="n">
         <v>16.8</v>
       </c>
-      <c r="K37" s="0" t="s">
-        <v>22</v>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,7 +1592,7 @@
         <v>44192</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>134.2</v>
@@ -1536,8 +1618,8 @@
       <c r="J38" s="0" t="n">
         <v>14.1</v>
       </c>
-      <c r="K38" s="0" t="s">
-        <v>22</v>
+      <c r="M38" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,7 +1627,7 @@
         <v>44192</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39" s="5" t="n">
         <v>181.5</v>
@@ -1571,8 +1653,10 @@
       <c r="J39" s="5" t="n">
         <v>11.1</v>
       </c>
-      <c r="K39" s="0" t="s">
-        <v>22</v>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,7 +1664,7 @@
         <v>44192</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" s="5" t="n">
         <v>156.4</v>
@@ -1606,8 +1690,10 @@
       <c r="J40" s="5" t="n">
         <v>10.1</v>
       </c>
-      <c r="K40" s="0" t="s">
-        <v>22</v>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,7 +1701,7 @@
         <v>44192</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" s="5" t="n">
         <v>129.5</v>
@@ -1641,8 +1727,10 @@
       <c r="J41" s="5" t="n">
         <v>13.9</v>
       </c>
-      <c r="K41" s="0" t="s">
-        <v>22</v>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,7 +1738,7 @@
         <v>44192</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C42" s="5" t="n">
         <v>145.4</v>
@@ -1676,8 +1764,10 @@
       <c r="J42" s="5" t="n">
         <v>24.2</v>
       </c>
-      <c r="K42" s="0" t="s">
-        <v>20</v>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1685,7 +1775,7 @@
         <v>44192</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C43" s="5" t="n">
         <v>123.4</v>
@@ -1711,8 +1801,10 @@
       <c r="J43" s="5" t="n">
         <v>12.3</v>
       </c>
-      <c r="K43" s="0" t="s">
-        <v>22</v>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1812,7 @@
         <v>44192</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C44" s="5" t="n">
         <v>212</v>
@@ -1746,8 +1838,10 @@
       <c r="J44" s="5" t="n">
         <v>17.9</v>
       </c>
-      <c r="K44" s="0" t="s">
-        <v>20</v>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,7 +1849,7 @@
         <v>44192</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C45" s="5" t="n">
         <v>125</v>
@@ -1781,8 +1875,10 @@
       <c r="J45" s="5" t="n">
         <v>7.6</v>
       </c>
-      <c r="K45" s="0" t="s">
-        <v>23</v>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,7 +1886,7 @@
         <v>44192</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C46" s="5" t="n">
         <v>85</v>
@@ -1816,8 +1912,10 @@
       <c r="J46" s="5" t="n">
         <v>13.5</v>
       </c>
-      <c r="K46" s="0" t="s">
-        <v>22</v>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,7 +1923,7 @@
         <v>44199</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>159.3</v>
@@ -1851,8 +1949,8 @@
       <c r="J47" s="0" t="n">
         <v>12.9</v>
       </c>
-      <c r="K47" s="0" t="s">
-        <v>22</v>
+      <c r="M47" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,7 +1958,7 @@
         <v>44199</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>206.5</v>
@@ -1886,8 +1984,8 @@
       <c r="J48" s="0" t="n">
         <v>13.7</v>
       </c>
-      <c r="K48" s="0" t="s">
-        <v>22</v>
+      <c r="M48" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1895,7 +1993,7 @@
         <v>44199</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>223.6</v>
@@ -1921,8 +2019,8 @@
       <c r="J49" s="0" t="n">
         <v>13.3</v>
       </c>
-      <c r="K49" s="0" t="s">
-        <v>22</v>
+      <c r="M49" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,7 +2028,7 @@
         <v>44199</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>159.1</v>
@@ -1956,8 +2054,8 @@
       <c r="J50" s="0" t="n">
         <v>13.2</v>
       </c>
-      <c r="K50" s="0" t="s">
-        <v>22</v>
+      <c r="M50" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,7 +2063,7 @@
         <v>44199</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>149.7</v>
@@ -1991,8 +2089,8 @@
       <c r="J51" s="0" t="n">
         <v>21.8</v>
       </c>
-      <c r="K51" s="0" t="s">
-        <v>20</v>
+      <c r="M51" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,7 +2098,7 @@
         <v>44199</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>123.6</v>
@@ -2026,8 +2124,8 @@
       <c r="J52" s="0" t="n">
         <v>15.1</v>
       </c>
-      <c r="K52" s="0" t="s">
-        <v>20</v>
+      <c r="M52" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,7 +2133,7 @@
         <v>44199</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>227</v>
@@ -2061,8 +2159,8 @@
       <c r="J53" s="0" t="n">
         <v>16.4</v>
       </c>
-      <c r="K53" s="0" t="s">
-        <v>20</v>
+      <c r="M53" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,7 +2168,7 @@
         <v>44199</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>150.9</v>
@@ -2096,8 +2194,8 @@
       <c r="J54" s="0" t="n">
         <v>6.2</v>
       </c>
-      <c r="K54" s="0" t="s">
-        <v>22</v>
+      <c r="M54" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2105,7 +2203,7 @@
         <v>44199</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>100.5</v>
@@ -2131,8 +2229,8 @@
       <c r="J55" s="0" t="n">
         <v>11.2</v>
       </c>
-      <c r="K55" s="0" t="s">
-        <v>22</v>
+      <c r="M55" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,7 +2238,7 @@
         <v>44207</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>368.3</v>
@@ -2166,8 +2264,8 @@
       <c r="J56" s="0" t="n">
         <v>16.2</v>
       </c>
-      <c r="K56" s="0" t="s">
-        <v>20</v>
+      <c r="M56" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2175,7 +2273,7 @@
         <v>44207</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>483.8</v>
@@ -2201,8 +2299,8 @@
       <c r="J57" s="0" t="n">
         <v>23.3</v>
       </c>
-      <c r="K57" s="0" t="s">
-        <v>20</v>
+      <c r="M57" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,7 +2308,7 @@
         <v>44207</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>462.8</v>
@@ -2236,8 +2334,8 @@
       <c r="J58" s="0" t="n">
         <v>20.3</v>
       </c>
-      <c r="K58" s="0" t="s">
-        <v>20</v>
+      <c r="M58" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,7 +2343,7 @@
         <v>44207</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>367.1</v>
@@ -2271,8 +2369,8 @@
       <c r="J59" s="0" t="n">
         <v>16.6</v>
       </c>
-      <c r="K59" s="0" t="s">
-        <v>20</v>
+      <c r="M59" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,7 +2378,7 @@
         <v>44207</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>365.6</v>
@@ -2306,8 +2404,8 @@
       <c r="J60" s="0" t="n">
         <v>23.8</v>
       </c>
-      <c r="K60" s="0" t="s">
-        <v>20</v>
+      <c r="M60" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2315,7 +2413,7 @@
         <v>44207</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>313.5</v>
@@ -2341,8 +2439,8 @@
       <c r="J61" s="0" t="n">
         <v>15.1</v>
       </c>
-      <c r="K61" s="0" t="s">
-        <v>20</v>
+      <c r="M61" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2448,7 @@
         <v>44207</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>438.9</v>
@@ -2376,8 +2474,8 @@
       <c r="J62" s="0" t="n">
         <v>17.6</v>
       </c>
-      <c r="K62" s="0" t="s">
-        <v>20</v>
+      <c r="M62" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2483,7 @@
         <v>44207</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>385.4</v>
@@ -2411,8 +2509,8 @@
       <c r="J63" s="0" t="n">
         <v>9.5</v>
       </c>
-      <c r="K63" s="0" t="s">
-        <v>22</v>
+      <c r="M63" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,7 +2518,7 @@
         <v>44207</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>244.3</v>
@@ -2446,8 +2544,8 @@
       <c r="J64" s="0" t="n">
         <v>11.2</v>
       </c>
-      <c r="K64" s="0" t="s">
-        <v>22</v>
+      <c r="M64" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,7 +2553,7 @@
         <v>44214</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>697.6</v>
@@ -2481,8 +2579,8 @@
       <c r="J65" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="K65" s="0" t="s">
-        <v>20</v>
+      <c r="M65" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,7 +2588,7 @@
         <v>44214</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>942.5</v>
@@ -2516,8 +2614,8 @@
       <c r="J66" s="0" t="n">
         <v>28.9</v>
       </c>
-      <c r="K66" s="0" t="s">
-        <v>21</v>
+      <c r="M66" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,7 +2623,7 @@
         <v>44214</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>784.1</v>
@@ -2551,8 +2649,8 @@
       <c r="J67" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K67" s="0" t="s">
-        <v>21</v>
+      <c r="M67" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,7 +2658,7 @@
         <v>44214</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>713.8</v>
@@ -2586,8 +2684,8 @@
       <c r="J68" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K68" s="0" t="s">
-        <v>21</v>
+      <c r="M68" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2595,7 +2693,7 @@
         <v>44214</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>668.4</v>
@@ -2621,8 +2719,8 @@
       <c r="J69" s="0" t="n">
         <v>28.6</v>
       </c>
-      <c r="K69" s="0" t="s">
-        <v>21</v>
+      <c r="M69" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,7 +2728,7 @@
         <v>44214</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>718.8</v>
@@ -2656,8 +2754,8 @@
       <c r="J70" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="K70" s="0" t="s">
-        <v>20</v>
+      <c r="M70" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,7 +2763,7 @@
         <v>44214</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>735.8</v>
@@ -2691,8 +2789,8 @@
       <c r="J71" s="0" t="n">
         <v>21.4</v>
       </c>
-      <c r="K71" s="0" t="s">
-        <v>21</v>
+      <c r="M71" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,7 +2798,7 @@
         <v>44214</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>740</v>
@@ -2726,8 +2824,8 @@
       <c r="J72" s="0" t="n">
         <v>14.9</v>
       </c>
-      <c r="K72" s="0" t="s">
-        <v>21</v>
+      <c r="M72" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,7 +2833,7 @@
         <v>44214</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>505.2</v>
@@ -2761,8 +2859,8 @@
       <c r="J73" s="0" t="n">
         <v>15.1</v>
       </c>
-      <c r="K73" s="0" t="s">
-        <v>20</v>
+      <c r="M73" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,7 +2868,7 @@
         <v>44221</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>984.4</v>
@@ -2796,8 +2894,8 @@
       <c r="J74" s="0" t="n">
         <v>31.6</v>
       </c>
-      <c r="K74" s="0" t="s">
-        <v>21</v>
+      <c r="M74" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,7 +2903,7 @@
         <v>44221</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>1300</v>
@@ -2831,8 +2929,8 @@
       <c r="J75" s="0" t="n">
         <v>41.2</v>
       </c>
-      <c r="K75" s="0" t="s">
-        <v>21</v>
+      <c r="M75" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,7 +2938,7 @@
         <v>44221</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>1090.3</v>
@@ -2866,8 +2964,8 @@
       <c r="J76" s="0" t="n">
         <v>39.2</v>
       </c>
-      <c r="K76" s="0" t="s">
-        <v>21</v>
+      <c r="M76" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2875,7 +2973,7 @@
         <v>44221</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>987.3</v>
@@ -2901,8 +2999,8 @@
       <c r="J77" s="0" t="n">
         <v>37.7</v>
       </c>
-      <c r="K77" s="0" t="s">
-        <v>21</v>
+      <c r="M77" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,7 +3008,7 @@
         <v>44221</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>930.6</v>
@@ -2936,8 +3034,8 @@
       <c r="J78" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="K78" s="0" t="s">
-        <v>21</v>
+      <c r="M78" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,7 +3043,7 @@
         <v>44221</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>1104.1</v>
@@ -2971,8 +3069,8 @@
       <c r="J79" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="K79" s="0" t="s">
-        <v>21</v>
+      <c r="M79" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,7 +3078,7 @@
         <v>44221</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>897.5</v>
@@ -3006,8 +3104,8 @@
       <c r="J80" s="0" t="n">
         <v>24.8</v>
       </c>
-      <c r="K80" s="0" t="s">
-        <v>21</v>
+      <c r="M80" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,7 +3113,7 @@
         <v>44221</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>1063.9</v>
@@ -3041,8 +3139,8 @@
       <c r="J81" s="0" t="n">
         <v>23.3</v>
       </c>
-      <c r="K81" s="0" t="s">
-        <v>21</v>
+      <c r="M81" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3050,7 +3148,7 @@
         <v>44221</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>753.2</v>
@@ -3076,8 +3174,8 @@
       <c r="J82" s="0" t="n">
         <v>23.9</v>
       </c>
-      <c r="K82" s="0" t="s">
-        <v>21</v>
+      <c r="M82" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,7 +3183,7 @@
         <v>44228</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>979.9</v>
@@ -3111,8 +3209,8 @@
       <c r="J83" s="0" t="n">
         <v>40.2</v>
       </c>
-      <c r="K83" s="0" t="s">
-        <v>21</v>
+      <c r="M83" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,7 +3218,7 @@
         <v>44228</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1284.1</v>
@@ -3146,8 +3244,8 @@
       <c r="J84" s="0" t="n">
         <v>49.7</v>
       </c>
-      <c r="K84" s="0" t="s">
-        <v>21</v>
+      <c r="M84" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,7 +3253,7 @@
         <v>44228</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>1047.2</v>
@@ -3181,8 +3279,8 @@
       <c r="J85" s="0" t="n">
         <v>45.6</v>
       </c>
-      <c r="K85" s="0" t="s">
-        <v>21</v>
+      <c r="M85" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,7 +3288,7 @@
         <v>44228</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>909.2</v>
@@ -3216,8 +3314,8 @@
       <c r="J86" s="0" t="n">
         <v>42.8</v>
       </c>
-      <c r="K86" s="0" t="s">
-        <v>21</v>
+      <c r="M86" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,7 +3323,7 @@
         <v>44228</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>961</v>
@@ -3251,8 +3349,8 @@
       <c r="J87" s="0" t="n">
         <v>47.6</v>
       </c>
-      <c r="K87" s="0" t="s">
-        <v>21</v>
+      <c r="M87" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,7 +3358,7 @@
         <v>44228</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>1086.7</v>
@@ -3286,8 +3384,8 @@
       <c r="J88" s="0" t="n">
         <v>41.3</v>
       </c>
-      <c r="K88" s="0" t="s">
-        <v>21</v>
+      <c r="M88" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,7 +3393,7 @@
         <v>44228</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>813</v>
@@ -3321,8 +3419,8 @@
       <c r="J89" s="0" t="n">
         <v>29.3</v>
       </c>
-      <c r="K89" s="0" t="s">
-        <v>21</v>
+      <c r="M89" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3428,7 @@
         <v>44228</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>1055.4</v>
@@ -3356,8 +3454,8 @@
       <c r="J90" s="0" t="n">
         <v>35.2</v>
       </c>
-      <c r="K90" s="0" t="s">
-        <v>21</v>
+      <c r="M90" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +3463,7 @@
         <v>44228</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>792.7</v>
@@ -3391,8 +3489,8 @@
       <c r="J91" s="0" t="n">
         <v>30.6</v>
       </c>
-      <c r="K91" s="0" t="s">
-        <v>21</v>
+      <c r="M91" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,7 +3498,7 @@
         <v>44235</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>763.8</v>
@@ -3426,8 +3524,8 @@
       <c r="J92" s="0" t="n">
         <v>37.1</v>
       </c>
-      <c r="K92" s="0" t="s">
-        <v>21</v>
+      <c r="M92" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3435,7 +3533,7 @@
         <v>44235</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>990.6</v>
@@ -3461,8 +3559,8 @@
       <c r="J93" s="0" t="n">
         <v>37.8</v>
       </c>
-      <c r="K93" s="0" t="s">
-        <v>21</v>
+      <c r="M93" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,7 +3568,7 @@
         <v>44235</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>926.5</v>
@@ -3496,8 +3594,8 @@
       <c r="J94" s="0" t="n">
         <v>47.6</v>
       </c>
-      <c r="K94" s="0" t="s">
-        <v>21</v>
+      <c r="M94" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,7 +3603,7 @@
         <v>44235</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>605.9</v>
@@ -3531,8 +3629,8 @@
       <c r="J95" s="0" t="n">
         <v>43.9</v>
       </c>
-      <c r="K95" s="0" t="s">
-        <v>21</v>
+      <c r="M95" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3540,7 +3638,7 @@
         <v>44235</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>712.2</v>
@@ -3566,8 +3664,8 @@
       <c r="J96" s="0" t="n">
         <v>47.5</v>
       </c>
-      <c r="K96" s="0" t="s">
-        <v>21</v>
+      <c r="M96" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3575,7 +3673,7 @@
         <v>44235</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>766.3</v>
@@ -3601,8 +3699,8 @@
       <c r="J97" s="0" t="n">
         <v>32.9</v>
       </c>
-      <c r="K97" s="0" t="s">
-        <v>21</v>
+      <c r="M97" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,7 +3708,7 @@
         <v>44235</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>599.3</v>
@@ -3636,8 +3734,8 @@
       <c r="J98" s="0" t="n">
         <v>32.3</v>
       </c>
-      <c r="K98" s="0" t="s">
-        <v>21</v>
+      <c r="M98" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,7 +3743,7 @@
         <v>44235</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>802.9</v>
@@ -3671,8 +3769,8 @@
       <c r="J99" s="0" t="n">
         <v>30.2</v>
       </c>
-      <c r="K99" s="0" t="s">
-        <v>21</v>
+      <c r="M99" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3680,7 +3778,7 @@
         <v>44235</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>661.9</v>
@@ -3706,8 +3804,8 @@
       <c r="J100" s="0" t="n">
         <v>29.9</v>
       </c>
-      <c r="K100" s="0" t="s">
-        <v>21</v>
+      <c r="M100" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,7 +3813,7 @@
         <v>44242</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>472.7</v>
@@ -3741,8 +3839,8 @@
       <c r="J101" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="K101" s="0" t="s">
-        <v>21</v>
+      <c r="M101" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,7 +3848,7 @@
         <v>44242</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>619.3</v>
@@ -3776,8 +3874,8 @@
       <c r="J102" s="0" t="n">
         <v>33.3</v>
       </c>
-      <c r="K102" s="0" t="s">
-        <v>21</v>
+      <c r="M102" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3785,7 +3883,7 @@
         <v>44242</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>616.1</v>
@@ -3811,8 +3909,8 @@
       <c r="J103" s="0" t="n">
         <v>41.1</v>
       </c>
-      <c r="K103" s="0" t="s">
-        <v>21</v>
+      <c r="M103" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,7 +3918,7 @@
         <v>44242</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>315.2</v>
@@ -3846,8 +3944,8 @@
       <c r="J104" s="0" t="n">
         <v>40.6</v>
       </c>
-      <c r="K104" s="0" t="s">
-        <v>21</v>
+      <c r="M104" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3855,7 +3953,7 @@
         <v>44242</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>417.5</v>
@@ -3881,8 +3979,8 @@
       <c r="J105" s="0" t="n">
         <v>40.1</v>
       </c>
-      <c r="K105" s="0" t="s">
-        <v>21</v>
+      <c r="M105" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3890,7 +3988,7 @@
         <v>44242</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>411.4</v>
@@ -3916,8 +4014,8 @@
       <c r="J106" s="0" t="n">
         <v>32.5</v>
       </c>
-      <c r="K106" s="0" t="s">
-        <v>21</v>
+      <c r="M106" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3925,7 +4023,7 @@
         <v>44242</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>371.9</v>
@@ -3951,8 +4049,8 @@
       <c r="J107" s="0" t="n">
         <v>29.7</v>
       </c>
-      <c r="K107" s="0" t="s">
-        <v>21</v>
+      <c r="M107" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +4058,7 @@
         <v>44242</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>493.5</v>
@@ -3986,8 +4084,8 @@
       <c r="J108" s="0" t="n">
         <v>27.7</v>
       </c>
-      <c r="K108" s="0" t="s">
-        <v>21</v>
+      <c r="M108" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,7 +4093,7 @@
         <v>44242</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>437.9</v>
@@ -4021,8 +4119,8 @@
       <c r="J109" s="0" t="n">
         <v>31.2</v>
       </c>
-      <c r="K109" s="0" t="s">
-        <v>21</v>
+      <c r="M109" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,7 +4128,7 @@
         <v>44249</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>274.6</v>
@@ -4056,8 +4154,8 @@
       <c r="J110" s="0" t="n">
         <v>29.1</v>
       </c>
-      <c r="K110" s="0" t="s">
-        <v>21</v>
+      <c r="M110" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,7 +4163,7 @@
         <v>44249</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>389.5</v>
@@ -4091,8 +4189,8 @@
       <c r="J111" s="0" t="n">
         <v>33.8</v>
       </c>
-      <c r="K111" s="0" t="s">
-        <v>21</v>
+      <c r="M111" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4100,7 +4198,7 @@
         <v>44249</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>329.2</v>
@@ -4126,8 +4224,8 @@
       <c r="J112" s="0" t="n">
         <v>35.1</v>
       </c>
-      <c r="K112" s="0" t="s">
-        <v>21</v>
+      <c r="M112" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,7 +4233,7 @@
         <v>44249</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>183.1</v>
@@ -4161,8 +4259,8 @@
       <c r="J113" s="0" t="n">
         <v>36.5</v>
       </c>
-      <c r="K113" s="0" t="s">
-        <v>21</v>
+      <c r="M113" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4170,7 +4268,7 @@
         <v>44249</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>273.6</v>
@@ -4196,8 +4294,8 @@
       <c r="J114" s="0" t="n">
         <v>38.5</v>
       </c>
-      <c r="K114" s="0" t="s">
-        <v>21</v>
+      <c r="M114" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,7 +4303,7 @@
         <v>44249</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>194.3</v>
@@ -4231,8 +4329,8 @@
       <c r="J115" s="0" t="n">
         <v>32.5</v>
       </c>
-      <c r="K115" s="0" t="s">
-        <v>20</v>
+      <c r="M115" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,7 +4338,7 @@
         <v>44249</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>205.5</v>
@@ -4266,8 +4364,8 @@
       <c r="J116" s="0" t="n">
         <v>22.6</v>
       </c>
-      <c r="K116" s="0" t="s">
-        <v>20</v>
+      <c r="M116" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4275,7 +4373,7 @@
         <v>44249</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>286</v>
@@ -4301,8 +4399,8 @@
       <c r="J117" s="0" t="n">
         <v>21.1</v>
       </c>
-      <c r="K117" s="0" t="s">
-        <v>20</v>
+      <c r="M117" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,7 +4408,7 @@
         <v>44249</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>265.8</v>
@@ -4336,8 +4434,8 @@
       <c r="J118" s="0" t="n">
         <v>22.9</v>
       </c>
-      <c r="K118" s="0" t="s">
-        <v>20</v>
+      <c r="M118" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,7 +4443,7 @@
         <v>44256</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>167.7</v>
@@ -4371,8 +4469,8 @@
       <c r="J119" s="0" t="n">
         <v>21.7</v>
       </c>
-      <c r="K119" s="0" t="s">
-        <v>20</v>
+      <c r="M119" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4380,7 +4478,7 @@
         <v>44256</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>280.3</v>
@@ -4406,8 +4504,8 @@
       <c r="J120" s="0" t="n">
         <v>27.6</v>
       </c>
-      <c r="K120" s="0" t="s">
-        <v>21</v>
+      <c r="M120" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4415,7 +4513,7 @@
         <v>44256</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>161.5</v>
@@ -4441,8 +4539,8 @@
       <c r="J121" s="0" t="n">
         <v>24.4</v>
       </c>
-      <c r="K121" s="0" t="s">
-        <v>20</v>
+      <c r="M121" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4450,7 +4548,7 @@
         <v>44256</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>129</v>
@@ -4476,8 +4574,8 @@
       <c r="J122" s="0" t="n">
         <v>24.7</v>
       </c>
-      <c r="K122" s="0" t="s">
-        <v>20</v>
+      <c r="M122" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4485,7 +4583,7 @@
         <v>44256</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>199.7</v>
@@ -4511,8 +4609,8 @@
       <c r="J123" s="0" t="n">
         <v>29.2</v>
       </c>
-      <c r="K123" s="0" t="s">
-        <v>21</v>
+      <c r="M123" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,7 +4618,7 @@
         <v>44256</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>106.2</v>
@@ -4546,8 +4644,8 @@
       <c r="J124" s="0" t="n">
         <v>21.9</v>
       </c>
-      <c r="K124" s="0" t="s">
-        <v>22</v>
+      <c r="M124" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,7 +4653,7 @@
         <v>44256</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>132.4</v>
@@ -4581,8 +4679,8 @@
       <c r="J125" s="0" t="n">
         <v>18.9</v>
       </c>
-      <c r="K125" s="0" t="s">
-        <v>22</v>
+      <c r="M125" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4590,7 +4688,7 @@
         <v>44256</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>163.2</v>
@@ -4616,8 +4714,8 @@
       <c r="J126" s="0" t="n">
         <v>14.6</v>
       </c>
-      <c r="K126" s="0" t="s">
-        <v>22</v>
+      <c r="M126" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,7 +4723,7 @@
         <v>44256</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>161.5</v>
@@ -4651,8 +4749,8 @@
       <c r="J127" s="0" t="n">
         <v>18.8</v>
       </c>
-      <c r="K127" s="0" t="s">
-        <v>20</v>
+      <c r="M127" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4660,7 +4758,7 @@
         <v>44263</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>134.5</v>
@@ -4686,8 +4784,8 @@
       <c r="J128" s="0" t="n">
         <v>17.6</v>
       </c>
-      <c r="K128" s="0" t="s">
-        <v>20</v>
+      <c r="M128" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4695,7 +4793,7 @@
         <v>44263</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>241.5</v>
@@ -4721,8 +4819,8 @@
       <c r="J129" s="0" t="n">
         <v>26.4</v>
       </c>
-      <c r="K129" s="0" t="s">
-        <v>20</v>
+      <c r="M129" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,7 +4828,7 @@
         <v>44263</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>117.6</v>
@@ -4756,8 +4854,8 @@
       <c r="J130" s="0" t="n">
         <v>19.5</v>
       </c>
-      <c r="K130" s="0" t="s">
-        <v>20</v>
+      <c r="M130" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +4863,7 @@
         <v>44263</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>122.6</v>
@@ -4791,8 +4889,8 @@
       <c r="J131" s="0" t="n">
         <v>17.6</v>
       </c>
-      <c r="K131" s="0" t="s">
-        <v>20</v>
+      <c r="M131" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,7 +4898,7 @@
         <v>44263</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>190.1</v>
@@ -4826,8 +4924,8 @@
       <c r="J132" s="0" t="n">
         <v>24.9</v>
       </c>
-      <c r="K132" s="0" t="s">
-        <v>20</v>
+      <c r="M132" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4835,7 +4933,7 @@
         <v>44263</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>64.6</v>
@@ -4861,8 +4959,8 @@
       <c r="J133" s="0" t="n">
         <v>9.6</v>
       </c>
-      <c r="K133" s="0" t="s">
-        <v>22</v>
+      <c r="M133" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,7 +4968,7 @@
         <v>44263</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>104</v>
@@ -4896,8 +4994,8 @@
       <c r="J134" s="0" t="n">
         <v>15.2</v>
       </c>
-      <c r="K134" s="0" t="s">
-        <v>22</v>
+      <c r="M134" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +5003,7 @@
         <v>44263</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>110.4</v>
@@ -4931,8 +5029,8 @@
       <c r="J135" s="0" t="n">
         <v>12.1</v>
       </c>
-      <c r="K135" s="0" t="s">
-        <v>22</v>
+      <c r="M135" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,7 +5038,7 @@
         <v>44263</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>132.9</v>
@@ -4966,8 +5064,8 @@
       <c r="J136" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="K136" s="0" t="s">
-        <v>20</v>
+      <c r="M136" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4975,7 +5073,7 @@
         <v>44270</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>133.1</v>
@@ -5001,8 +5099,8 @@
       <c r="J137" s="0" t="n">
         <v>15.4</v>
       </c>
-      <c r="K137" s="0" t="s">
-        <v>22</v>
+      <c r="M137" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,7 +5108,7 @@
         <v>44270</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>253.2</v>
@@ -5036,8 +5134,8 @@
       <c r="J138" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="K138" s="0" t="s">
-        <v>21</v>
+      <c r="M138" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,7 +5143,7 @@
         <v>44270</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>104.4</v>
@@ -5071,8 +5169,8 @@
       <c r="J139" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="K139" s="0" t="s">
-        <v>22</v>
+      <c r="M139" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5178,7 @@
         <v>44270</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>130.5</v>
@@ -5106,8 +5204,8 @@
       <c r="J140" s="0" t="n">
         <v>14.1</v>
       </c>
-      <c r="K140" s="0" t="s">
-        <v>22</v>
+      <c r="M140" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,7 +5213,7 @@
         <v>44270</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>206.1</v>
@@ -5141,8 +5239,8 @@
       <c r="J141" s="0" t="n">
         <v>24.9</v>
       </c>
-      <c r="K141" s="0" t="s">
-        <v>20</v>
+      <c r="M141" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5150,7 +5248,7 @@
         <v>44270</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>51.7</v>
@@ -5176,8 +5274,8 @@
       <c r="J142" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K142" s="0" t="s">
-        <v>22</v>
+      <c r="M142" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,7 +5283,7 @@
         <v>44270</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>96.3</v>
@@ -5211,8 +5309,8 @@
       <c r="J143" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K143" s="0" t="s">
-        <v>22</v>
+      <c r="M143" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,7 +5318,7 @@
         <v>44270</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>105.7</v>
@@ -5246,8 +5344,8 @@
       <c r="J144" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="K144" s="0" t="s">
-        <v>22</v>
+      <c r="M144" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5255,7 +5353,7 @@
         <v>44270</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>131</v>
@@ -5281,8 +5379,8 @@
       <c r="J145" s="0" t="n">
         <v>14.8</v>
       </c>
-      <c r="K145" s="0" t="s">
-        <v>22</v>
+      <c r="M145" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,7 +5388,7 @@
         <v>44277</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>131.4</v>
@@ -5316,8 +5414,8 @@
       <c r="J146" s="0" t="n">
         <v>13.9</v>
       </c>
-      <c r="K146" s="0" t="s">
-        <v>22</v>
+      <c r="M146" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,7 +5423,7 @@
         <v>44277</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>251.9</v>
@@ -5351,8 +5449,8 @@
       <c r="J147" s="0" t="n">
         <v>25.4</v>
       </c>
-      <c r="K147" s="0" t="s">
-        <v>21</v>
+      <c r="M147" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,7 +5458,7 @@
         <v>44277</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>91</v>
@@ -5386,8 +5484,8 @@
       <c r="J148" s="0" t="n">
         <v>9.8</v>
       </c>
-      <c r="K148" s="0" t="s">
-        <v>23</v>
+      <c r="M148" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,7 +5493,7 @@
         <v>44277</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>140.4</v>
@@ -5421,8 +5519,8 @@
       <c r="J149" s="0" t="n">
         <v>12.4</v>
       </c>
-      <c r="K149" s="0" t="s">
-        <v>22</v>
+      <c r="M149" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5430,7 +5528,7 @@
         <v>44277</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>208.9</v>
@@ -5456,8 +5554,8 @@
       <c r="J150" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="K150" s="0" t="s">
-        <v>20</v>
+      <c r="M150" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,7 +5563,7 @@
         <v>44277</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>69.4</v>
@@ -5491,8 +5589,8 @@
       <c r="J151" s="0" t="n">
         <v>8.2</v>
       </c>
-      <c r="K151" s="0" t="s">
-        <v>23</v>
+      <c r="M151" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5500,7 +5598,7 @@
         <v>44277</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>98.6</v>
@@ -5526,8 +5624,8 @@
       <c r="J152" s="0" t="n">
         <v>7.9</v>
       </c>
-      <c r="K152" s="0" t="s">
-        <v>22</v>
+      <c r="M152" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,7 +5633,7 @@
         <v>44277</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>93.4</v>
@@ -5561,8 +5659,8 @@
       <c r="J153" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="K153" s="0" t="s">
-        <v>23</v>
+      <c r="M153" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5570,7 +5668,7 @@
         <v>44277</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>132.5</v>
@@ -5596,8 +5694,8 @@
       <c r="J154" s="0" t="n">
         <v>14.6</v>
       </c>
-      <c r="K154" s="0" t="s">
-        <v>22</v>
+      <c r="M154" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,7 +5703,7 @@
         <v>44291</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>180.8</v>
@@ -5631,8 +5729,8 @@
       <c r="J155" s="0" t="n">
         <v>14.9</v>
       </c>
-      <c r="K155" s="0" t="s">
-        <v>22</v>
+      <c r="M155" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,7 +5738,7 @@
         <v>44291</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>242.7</v>
@@ -5666,8 +5764,8 @@
       <c r="J156" s="0" t="n">
         <v>20.4</v>
       </c>
-      <c r="K156" s="0" t="s">
-        <v>20</v>
+      <c r="M156" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,7 +5773,7 @@
         <v>44291</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>157.1</v>
@@ -5701,8 +5799,8 @@
       <c r="J157" s="0" t="n">
         <v>10.6</v>
       </c>
-      <c r="K157" s="0" t="s">
-        <v>22</v>
+      <c r="M157" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5710,7 +5808,7 @@
         <v>44291</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>229.5</v>
@@ -5736,8 +5834,8 @@
       <c r="J158" s="0" t="n">
         <v>18.2</v>
       </c>
-      <c r="K158" s="0" t="s">
-        <v>20</v>
+      <c r="M158" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5745,7 +5843,7 @@
         <v>44291</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>265.9</v>
@@ -5771,8 +5869,8 @@
       <c r="J159" s="0" t="n">
         <v>27.6</v>
       </c>
-      <c r="K159" s="0" t="s">
-        <v>21</v>
+      <c r="M159" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,7 +5878,7 @@
         <v>44291</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>148.9</v>
@@ -5806,8 +5904,8 @@
       <c r="J160" s="0" t="n">
         <v>4.1</v>
       </c>
-      <c r="K160" s="0" t="s">
-        <v>22</v>
+      <c r="M160" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5815,7 +5913,7 @@
         <v>44291</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>167.3</v>
@@ -5841,8 +5939,8 @@
       <c r="J161" s="0" t="n">
         <v>9.8</v>
       </c>
-      <c r="K161" s="0" t="s">
-        <v>22</v>
+      <c r="M161" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5850,7 +5948,7 @@
         <v>44291</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>105.2</v>
@@ -5876,8 +5974,8 @@
       <c r="J162" s="0" t="n">
         <v>7.6</v>
       </c>
-      <c r="K162" s="0" t="s">
-        <v>23</v>
+      <c r="M162" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,7 +5983,7 @@
         <v>44291</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>189.5</v>
@@ -5911,8 +6009,8 @@
       <c r="J163" s="0" t="n">
         <v>15.9</v>
       </c>
-      <c r="K163" s="0" t="s">
-        <v>20</v>
+      <c r="M163" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5920,7 +6018,7 @@
         <v>44298</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>239.3</v>
@@ -5946,8 +6044,8 @@
       <c r="J164" s="0" t="n">
         <v>15.5</v>
       </c>
-      <c r="K164" s="0" t="s">
-        <v>20</v>
+      <c r="M164" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5955,7 +6053,7 @@
         <v>44298</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>269.2</v>
@@ -5981,8 +6079,8 @@
       <c r="J165" s="0" t="n">
         <v>22.7</v>
       </c>
-      <c r="K165" s="0" t="s">
-        <v>20</v>
+      <c r="M165" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5990,7 +6088,7 @@
         <v>44298</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>200.1</v>
@@ -6016,8 +6114,8 @@
       <c r="J166" s="0" t="n">
         <v>10.6</v>
       </c>
-      <c r="K166" s="0" t="s">
-        <v>22</v>
+      <c r="M166" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6025,7 +6123,7 @@
         <v>44298</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>240.2</v>
@@ -6051,8 +6149,8 @@
       <c r="J167" s="0" t="n">
         <v>14.7</v>
       </c>
-      <c r="K167" s="0" t="s">
-        <v>22</v>
+      <c r="M167" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,7 +6158,7 @@
         <v>44298</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>406.9</v>
@@ -6086,8 +6184,8 @@
       <c r="J168" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="K168" s="0" t="s">
-        <v>21</v>
+      <c r="M168" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6095,7 +6193,7 @@
         <v>44298</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>242.8</v>
@@ -6121,8 +6219,8 @@
       <c r="J169" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="K169" s="0" t="s">
-        <v>22</v>
+      <c r="M169" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,7 +6228,7 @@
         <v>44298</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>296.6</v>
@@ -6156,8 +6254,8 @@
       <c r="J170" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="K170" s="0" t="s">
-        <v>22</v>
+      <c r="M170" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,7 +6263,7 @@
         <v>44298</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>128.3</v>
@@ -6191,8 +6289,8 @@
       <c r="J171" s="0" t="n">
         <v>7.6</v>
       </c>
-      <c r="K171" s="0" t="s">
-        <v>23</v>
+      <c r="M171" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6200,7 +6298,7 @@
         <v>44298</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>246.9</v>
@@ -6226,8 +6324,8 @@
       <c r="J172" s="0" t="n">
         <v>17.4</v>
       </c>
-      <c r="K172" s="0" t="s">
-        <v>20</v>
+      <c r="M172" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6235,7 +6333,7 @@
         <v>44305</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>280.1</v>
@@ -6261,8 +6359,8 @@
       <c r="J173" s="0" t="n">
         <v>16.5</v>
       </c>
-      <c r="K173" s="0" t="s">
-        <v>20</v>
+      <c r="M173" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,7 +6368,7 @@
         <v>44305</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>298.7</v>
@@ -6296,8 +6394,8 @@
       <c r="J174" s="0" t="n">
         <v>21.3</v>
       </c>
-      <c r="K174" s="0" t="s">
-        <v>20</v>
+      <c r="M174" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,7 +6403,7 @@
         <v>44305</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>214.2</v>
@@ -6331,8 +6429,8 @@
       <c r="J175" s="0" t="n">
         <v>12.2</v>
       </c>
-      <c r="K175" s="0" t="s">
-        <v>22</v>
+      <c r="M175" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,7 +6438,7 @@
         <v>44305</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>239.9</v>
@@ -6366,8 +6464,8 @@
       <c r="J176" s="0" t="n">
         <v>15.9</v>
       </c>
-      <c r="K176" s="0" t="s">
-        <v>20</v>
+      <c r="M176" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6375,7 +6473,7 @@
         <v>44305</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>502</v>
@@ -6401,8 +6499,8 @@
       <c r="J177" s="0" t="n">
         <v>29.6</v>
       </c>
-      <c r="K177" s="0" t="s">
-        <v>21</v>
+      <c r="M177" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6410,7 +6508,7 @@
         <v>44305</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>285.7</v>
@@ -6436,8 +6534,8 @@
       <c r="J178" s="0" t="n">
         <v>13.7</v>
       </c>
-      <c r="K178" s="0" t="s">
-        <v>22</v>
+      <c r="M178" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,7 +6543,7 @@
         <v>44305</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>383.7</v>
@@ -6471,8 +6569,8 @@
       <c r="J179" s="0" t="n">
         <v>9.8</v>
       </c>
-      <c r="K179" s="0" t="s">
-        <v>20</v>
+      <c r="M179" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6578,7 @@
         <v>44305</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>156.1</v>
@@ -6506,8 +6604,8 @@
       <c r="J180" s="0" t="n">
         <v>8.7</v>
       </c>
-      <c r="K180" s="0" t="s">
-        <v>23</v>
+      <c r="M180" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6515,7 +6613,7 @@
         <v>44305</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>295</v>
@@ -6541,8 +6639,8 @@
       <c r="J181" s="0" t="n">
         <v>18.9</v>
       </c>
-      <c r="K181" s="0" t="s">
-        <v>20</v>
+      <c r="M181" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6550,7 +6648,7 @@
         <v>44314</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>226.7</v>
@@ -6576,8 +6674,8 @@
       <c r="J182" s="0" t="n">
         <v>18.7</v>
       </c>
-      <c r="K182" s="0" t="s">
-        <v>20</v>
+      <c r="M182" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,7 +6683,7 @@
         <v>44314</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>227.3</v>
@@ -6611,8 +6709,8 @@
       <c r="J183" s="0" t="n">
         <v>19.6</v>
       </c>
-      <c r="K183" s="0" t="s">
-        <v>20</v>
+      <c r="M183" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6620,7 +6718,7 @@
         <v>44314</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>156.5</v>
@@ -6646,8 +6744,8 @@
       <c r="J184" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="K184" s="0" t="s">
-        <v>20</v>
+      <c r="M184" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,7 +6753,7 @@
         <v>44314</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>189</v>
@@ -6681,8 +6779,8 @@
       <c r="J185" s="0" t="n">
         <v>20.6</v>
       </c>
-      <c r="K185" s="0" t="s">
-        <v>20</v>
+      <c r="M185" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6690,7 +6788,7 @@
         <v>44314</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>403.2</v>
@@ -6716,8 +6814,8 @@
       <c r="J186" s="0" t="n">
         <v>39.7</v>
       </c>
-      <c r="K186" s="0" t="s">
-        <v>21</v>
+      <c r="M186" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,7 +6823,7 @@
         <v>44314</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>247</v>
@@ -6751,8 +6849,8 @@
       <c r="J187" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K187" s="0" t="s">
-        <v>22</v>
+      <c r="M187" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,7 +6858,7 @@
         <v>44314</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>300.7</v>
@@ -6786,8 +6884,8 @@
       <c r="J188" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K188" s="0" t="s">
-        <v>20</v>
+      <c r="M188" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6795,7 +6893,7 @@
         <v>44314</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>133</v>
@@ -6821,8 +6919,8 @@
       <c r="J189" s="0" t="n">
         <v>7.1</v>
       </c>
-      <c r="K189" s="0" t="s">
-        <v>23</v>
+      <c r="M189" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,7 +6928,7 @@
         <v>44314</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>252.8</v>
@@ -6856,8 +6954,8 @@
       <c r="J190" s="0" t="n">
         <v>21.8</v>
       </c>
-      <c r="K190" s="0" t="s">
-        <v>20</v>
+      <c r="M190" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6865,7 +6963,7 @@
         <v>44321</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>194</v>
@@ -6891,8 +6989,8 @@
       <c r="J191" s="0" t="n">
         <v>17.6</v>
       </c>
-      <c r="K191" s="0" t="s">
-        <v>20</v>
+      <c r="M191" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,7 +6998,7 @@
         <v>44321</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>163.2</v>
@@ -6926,8 +7024,8 @@
       <c r="J192" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="K192" s="0" t="s">
-        <v>20</v>
+      <c r="M192" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6935,7 +7033,7 @@
         <v>44321</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>114.1</v>
@@ -6961,8 +7059,8 @@
       <c r="J193" s="0" t="n">
         <v>11.8</v>
       </c>
-      <c r="K193" s="0" t="s">
-        <v>22</v>
+      <c r="M193" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6970,7 +7068,7 @@
         <v>44321</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>171.9</v>
@@ -6996,8 +7094,8 @@
       <c r="J194" s="0" t="n">
         <v>22.9</v>
       </c>
-      <c r="K194" s="0" t="s">
-        <v>20</v>
+      <c r="M194" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7005,7 +7103,7 @@
         <v>44321</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>369.6</v>
@@ -7031,8 +7129,8 @@
       <c r="J195" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="K195" s="0" t="s">
-        <v>21</v>
+      <c r="M195" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7040,7 +7138,7 @@
         <v>44321</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>213.5</v>
@@ -7066,8 +7164,8 @@
       <c r="J196" s="0" t="n">
         <v>15.1</v>
       </c>
-      <c r="K196" s="0" t="s">
-        <v>20</v>
+      <c r="M196" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7075,7 +7173,7 @@
         <v>44321</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>223.2</v>
@@ -7101,8 +7199,8 @@
       <c r="J197" s="0" t="n">
         <v>9.8</v>
       </c>
-      <c r="K197" s="0" t="s">
-        <v>22</v>
+      <c r="M197" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7110,7 +7208,7 @@
         <v>44321</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>129.1</v>
@@ -7136,8 +7234,8 @@
       <c r="J198" s="0" t="n">
         <v>7.6</v>
       </c>
-      <c r="K198" s="0" t="s">
-        <v>23</v>
+      <c r="M198" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7145,7 +7243,7 @@
         <v>44321</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>222.1</v>
@@ -7171,8 +7269,8 @@
       <c r="J199" s="0" t="n">
         <v>20.8</v>
       </c>
-      <c r="K199" s="0" t="s">
-        <v>20</v>
+      <c r="M199" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7180,7 +7278,7 @@
         <v>44328</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>171.2</v>
@@ -7206,8 +7304,8 @@
       <c r="J200" s="0" t="n">
         <v>16.4</v>
       </c>
-      <c r="K200" s="0" t="s">
-        <v>22</v>
+      <c r="M200" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,7 +7313,7 @@
         <v>44328</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>120.6</v>
@@ -7241,8 +7339,8 @@
       <c r="J201" s="0" t="n">
         <v>14.2</v>
       </c>
-      <c r="K201" s="0" t="s">
-        <v>22</v>
+      <c r="M201" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7250,7 +7348,7 @@
         <v>44328</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>88.3</v>
@@ -7276,8 +7374,8 @@
       <c r="J202" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K202" s="0" t="s">
-        <v>22</v>
+      <c r="M202" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,7 +7383,7 @@
         <v>44328</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>144.3</v>
@@ -7311,8 +7409,8 @@
       <c r="J203" s="0" t="n">
         <v>24.7</v>
       </c>
-      <c r="K203" s="0" t="s">
-        <v>22</v>
+      <c r="M203" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7320,7 +7418,7 @@
         <v>44328</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>307</v>
@@ -7346,8 +7444,8 @@
       <c r="J204" s="0" t="n">
         <v>32.7</v>
       </c>
-      <c r="K204" s="0" t="s">
-        <v>21</v>
+      <c r="M204" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7355,7 +7453,7 @@
         <v>44328</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>190.2</v>
@@ -7381,8 +7479,8 @@
       <c r="J205" s="0" t="n">
         <v>13.7</v>
       </c>
-      <c r="K205" s="0" t="s">
-        <v>22</v>
+      <c r="M205" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7390,7 +7488,7 @@
         <v>44328</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>206.4</v>
@@ -7416,8 +7514,8 @@
       <c r="J206" s="0" t="n">
         <v>10.4</v>
       </c>
-      <c r="K206" s="0" t="s">
-        <v>22</v>
+      <c r="M206" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7425,7 +7523,7 @@
         <v>44328</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>126.9</v>
@@ -7451,8 +7549,8 @@
       <c r="J207" s="0" t="n">
         <v>5.8</v>
       </c>
-      <c r="K207" s="0" t="s">
-        <v>23</v>
+      <c r="M207" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7460,7 +7558,7 @@
         <v>44328</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>209.6</v>
@@ -7486,8 +7584,8 @@
       <c r="J208" s="0" t="n">
         <v>20.1</v>
       </c>
-      <c r="K208" s="0" t="s">
-        <v>20</v>
+      <c r="M208" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,7 +7593,7 @@
         <v>44335</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>164.4</v>
@@ -7521,8 +7619,8 @@
       <c r="J209" s="0" t="n">
         <v>13.7</v>
       </c>
-      <c r="K209" s="0" t="s">
-        <v>22</v>
+      <c r="M209" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7530,7 +7628,7 @@
         <v>44335</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>95.5</v>
@@ -7556,8 +7654,8 @@
       <c r="J210" s="0" t="n">
         <v>12.9</v>
       </c>
-      <c r="K210" s="0" t="s">
-        <v>22</v>
+      <c r="M210" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,7 +7663,7 @@
         <v>44335</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>92.2</v>
@@ -7591,8 +7689,8 @@
       <c r="J211" s="0" t="n">
         <v>8.5</v>
       </c>
-      <c r="K211" s="0" t="s">
-        <v>23</v>
+      <c r="M211" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7600,7 +7698,7 @@
         <v>44335</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>128.1</v>
@@ -7626,8 +7724,8 @@
       <c r="J212" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="K212" s="0" t="s">
-        <v>22</v>
+      <c r="M212" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7635,7 +7733,7 @@
         <v>44335</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>246.1</v>
@@ -7661,8 +7759,8 @@
       <c r="J213" s="0" t="n">
         <v>25.7</v>
       </c>
-      <c r="K213" s="0" t="s">
-        <v>20</v>
+      <c r="M213" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7670,7 +7768,7 @@
         <v>44335</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>231</v>
@@ -7696,8 +7794,8 @@
       <c r="J214" s="0" t="n">
         <v>8.2</v>
       </c>
-      <c r="K214" s="0" t="s">
-        <v>22</v>
+      <c r="M214" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,7 +7803,7 @@
         <v>44335</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>208.1</v>
@@ -7731,8 +7829,8 @@
       <c r="J215" s="0" t="n">
         <v>11.6</v>
       </c>
-      <c r="K215" s="0" t="s">
-        <v>22</v>
+      <c r="M215" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,7 +7838,7 @@
         <v>44335</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>121.7</v>
@@ -7766,8 +7864,8 @@
       <c r="J216" s="0" t="n">
         <v>4.3</v>
       </c>
-      <c r="K216" s="0" t="s">
-        <v>23</v>
+      <c r="M216" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7775,7 +7873,7 @@
         <v>44335</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>215.9</v>
@@ -7801,8 +7899,8 @@
       <c r="J217" s="0" t="n">
         <v>17.7</v>
       </c>
-      <c r="K217" s="0" t="s">
-        <v>20</v>
+      <c r="M217" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7810,7 +7908,7 @@
         <v>44342</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>163.9</v>
@@ -7836,8 +7934,8 @@
       <c r="J218" s="0" t="n">
         <v>12.1</v>
       </c>
-      <c r="K218" s="0" t="s">
-        <v>22</v>
+      <c r="M218" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7845,7 +7943,7 @@
         <v>44342</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>76.8</v>
@@ -7871,8 +7969,8 @@
       <c r="J219" s="0" t="n">
         <v>6.7</v>
       </c>
-      <c r="K219" s="0" t="s">
-        <v>23</v>
+      <c r="M219" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7880,7 +7978,7 @@
         <v>44342</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>101.6</v>
@@ -7906,8 +8004,8 @@
       <c r="J220" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="K220" s="0" t="s">
-        <v>23</v>
+      <c r="M220" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7915,7 +8013,7 @@
         <v>44342</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>127.1</v>
@@ -7941,8 +8039,8 @@
       <c r="J221" s="0" t="n">
         <v>15.9</v>
       </c>
-      <c r="K221" s="0" t="s">
-        <v>22</v>
+      <c r="M221" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7950,7 +8048,7 @@
         <v>44342</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>224.3</v>
@@ -7976,8 +8074,8 @@
       <c r="J222" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="K222" s="0" t="s">
-        <v>20</v>
+      <c r="M222" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7985,7 +8083,7 @@
         <v>44342</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>251.4</v>
@@ -8011,8 +8109,8 @@
       <c r="J223" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="K223" s="0" t="s">
-        <v>22</v>
+      <c r="M223" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8020,7 +8118,7 @@
         <v>44342</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>218.4</v>
@@ -8046,8 +8144,8 @@
       <c r="J224" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="K224" s="0" t="s">
-        <v>22</v>
+      <c r="M224" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,7 +8153,7 @@
         <v>44342</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>124.6</v>
@@ -8081,8 +8179,8 @@
       <c r="J225" s="0" t="n">
         <v>5.2</v>
       </c>
-      <c r="K225" s="0" t="s">
-        <v>23</v>
+      <c r="M225" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8090,7 +8188,7 @@
         <v>44342</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>215.7</v>
@@ -8116,8 +8214,8 @@
       <c r="J226" s="0" t="n">
         <v>18.5</v>
       </c>
-      <c r="K226" s="0" t="s">
-        <v>20</v>
+      <c r="M226" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8125,7 +8223,7 @@
         <v>44349</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>180.8</v>
@@ -8151,8 +8249,8 @@
       <c r="J227" s="0" t="n">
         <v>10.9</v>
       </c>
-      <c r="K227" s="0" t="s">
-        <v>22</v>
+      <c r="M227" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,7 +8258,7 @@
         <v>44349</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>72.9</v>
@@ -8186,8 +8284,8 @@
       <c r="J228" s="0" t="n">
         <v>4.9</v>
       </c>
-      <c r="K228" s="0" t="s">
-        <v>23</v>
+      <c r="M228" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8195,7 +8293,7 @@
         <v>44349</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>123.7</v>
@@ -8221,8 +8319,8 @@
       <c r="J229" s="0" t="n">
         <v>7.7</v>
       </c>
-      <c r="K229" s="0" t="s">
-        <v>23</v>
+      <c r="M229" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8230,7 +8328,7 @@
         <v>44349</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>152.8</v>
@@ -8256,8 +8354,8 @@
       <c r="J230" s="0" t="n">
         <v>14.1</v>
       </c>
-      <c r="K230" s="0" t="s">
-        <v>22</v>
+      <c r="M230" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8265,7 +8363,7 @@
         <v>44349</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>223.9</v>
@@ -8291,8 +8389,8 @@
       <c r="J231" s="0" t="n">
         <v>18.3</v>
       </c>
-      <c r="K231" s="0" t="s">
-        <v>20</v>
+      <c r="M231" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8300,7 +8398,7 @@
         <v>44349</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>272.4</v>
@@ -8326,8 +8424,8 @@
       <c r="J232" s="0" t="n">
         <v>9.6</v>
       </c>
-      <c r="K232" s="0" t="s">
-        <v>22</v>
+      <c r="M232" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8335,7 +8433,7 @@
         <v>44349</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>244.7</v>
@@ -8361,8 +8459,8 @@
       <c r="J233" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="K233" s="0" t="s">
-        <v>22</v>
+      <c r="M233" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8370,7 +8468,7 @@
         <v>44349</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>146.9</v>
@@ -8396,8 +8494,8 @@
       <c r="J234" s="0" t="n">
         <v>4.5</v>
       </c>
-      <c r="K234" s="0" t="s">
-        <v>23</v>
+      <c r="M234" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,7 +8503,7 @@
         <v>44349</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>232.1</v>
@@ -8431,8 +8529,8 @@
       <c r="J235" s="0" t="n">
         <v>15.4</v>
       </c>
-      <c r="K235" s="0" t="s">
-        <v>20</v>
+      <c r="M235" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8440,7 +8538,7 @@
         <v>44356</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>189.4</v>
@@ -8466,8 +8564,8 @@
       <c r="J236" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="K236" s="0" t="s">
-        <v>23</v>
+      <c r="M236" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8475,7 +8573,7 @@
         <v>44356</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>65</v>
@@ -8501,8 +8599,8 @@
       <c r="J237" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="K237" s="0" t="s">
-        <v>23</v>
+      <c r="M237" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8510,7 +8608,7 @@
         <v>44356</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>142.4</v>
@@ -8536,8 +8634,8 @@
       <c r="J238" s="0" t="n">
         <v>6.5</v>
       </c>
-      <c r="K238" s="0" t="s">
-        <v>23</v>
+      <c r="M238" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8545,7 +8643,7 @@
         <v>44356</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>202.4</v>
@@ -8571,8 +8669,8 @@
       <c r="J239" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="K239" s="0" t="s">
-        <v>22</v>
+      <c r="M239" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8580,7 +8678,7 @@
         <v>44356</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>207.1</v>
@@ -8606,8 +8704,8 @@
       <c r="J240" s="0" t="n">
         <v>11.3</v>
       </c>
-      <c r="K240" s="0" t="s">
-        <v>22</v>
+      <c r="M240" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8615,7 +8713,7 @@
         <v>44356</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>287.8</v>
@@ -8641,8 +8739,8 @@
       <c r="J241" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="K241" s="0" t="s">
-        <v>22</v>
+      <c r="M241" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8650,7 +8748,7 @@
         <v>44356</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>256.3</v>
@@ -8676,8 +8774,8 @@
       <c r="J242" s="0" t="n">
         <v>12.2</v>
       </c>
-      <c r="K242" s="0" t="s">
-        <v>22</v>
+      <c r="M242" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8685,7 +8783,7 @@
         <v>44356</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>160.6</v>
@@ -8711,8 +8809,8 @@
       <c r="J243" s="0" t="n">
         <v>4.7</v>
       </c>
-      <c r="K243" s="0" t="s">
-        <v>23</v>
+      <c r="M243" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8720,7 +8818,7 @@
         <v>44356</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>227.7</v>
@@ -8746,8 +8844,8 @@
       <c r="J244" s="0" t="n">
         <v>14.6</v>
       </c>
-      <c r="K244" s="0" t="s">
-        <v>22</v>
+      <c r="M244" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8755,7 +8853,7 @@
         <v>44363</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>177.4</v>
@@ -8781,8 +8879,8 @@
       <c r="J245" s="0" t="n">
         <v>8.4</v>
       </c>
-      <c r="K245" s="0" t="s">
-        <v>23</v>
+      <c r="M245" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8790,7 +8888,7 @@
         <v>44363</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>67.6</v>
@@ -8816,8 +8914,8 @@
       <c r="J246" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="K246" s="0" t="s">
-        <v>23</v>
+      <c r="M246" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8825,7 +8923,7 @@
         <v>44363</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>137.9</v>
@@ -8851,8 +8949,8 @@
       <c r="J247" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="K247" s="0" t="s">
-        <v>23</v>
+      <c r="M247" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8860,7 +8958,7 @@
         <v>44363</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>236.2</v>
@@ -8886,8 +8984,8 @@
       <c r="J248" s="0" t="n">
         <v>12.7</v>
       </c>
-      <c r="K248" s="0" t="s">
-        <v>22</v>
+      <c r="M248" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8895,7 +8993,7 @@
         <v>44363</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>193.3</v>
@@ -8921,8 +9019,8 @@
       <c r="J249" s="0" t="n">
         <v>9.7</v>
       </c>
-      <c r="K249" s="0" t="s">
-        <v>23</v>
+      <c r="M249" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8930,7 +9028,7 @@
         <v>44363</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>252</v>
@@ -8956,8 +9054,8 @@
       <c r="J250" s="0" t="n">
         <v>6.8</v>
       </c>
-      <c r="K250" s="0" t="s">
-        <v>23</v>
+      <c r="M250" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8965,7 +9063,7 @@
         <v>44363</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>186.9</v>
@@ -8991,8 +9089,8 @@
       <c r="J251" s="0" t="n">
         <v>15.9</v>
       </c>
-      <c r="K251" s="0" t="s">
-        <v>22</v>
+      <c r="M251" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9000,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>155.8</v>
@@ -9026,8 +9124,8 @@
       <c r="J252" s="0" t="n">
         <v>3.2</v>
       </c>
-      <c r="K252" s="0" t="s">
-        <v>23</v>
+      <c r="M252" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9035,7 +9133,7 @@
         <v>44363</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>207.3</v>
@@ -9061,8 +9159,8 @@
       <c r="J253" s="0" t="n">
         <v>14.9</v>
       </c>
-      <c r="K253" s="0" t="s">
-        <v>22</v>
+      <c r="M253" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9070,7 +9168,7 @@
         <v>44370</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>166.5</v>
@@ -9096,8 +9194,8 @@
       <c r="J254" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="K254" s="0" t="s">
-        <v>23</v>
+      <c r="M254" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9105,7 +9203,7 @@
         <v>44370</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>68.5</v>
@@ -9131,8 +9229,8 @@
       <c r="J255" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="K255" s="0" t="s">
-        <v>23</v>
+      <c r="M255" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9140,7 +9238,7 @@
         <v>44370</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C256" s="0" t="n">
         <v>136.2</v>
@@ -9166,8 +9264,8 @@
       <c r="J256" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="K256" s="0" t="s">
-        <v>23</v>
+      <c r="M256" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9175,7 +9273,7 @@
         <v>44370</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>264</v>
@@ -9201,8 +9299,8 @@
       <c r="J257" s="0" t="n">
         <v>15.2</v>
       </c>
-      <c r="K257" s="0" t="s">
-        <v>20</v>
+      <c r="M257" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9210,7 +9308,7 @@
         <v>44370</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>194.1</v>
@@ -9236,8 +9334,8 @@
       <c r="J258" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K258" s="0" t="s">
-        <v>23</v>
+      <c r="M258" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9245,7 +9343,7 @@
         <v>44370</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C259" s="0" t="n">
         <v>197.4</v>
@@ -9271,8 +9369,8 @@
       <c r="J259" s="0" t="n">
         <v>9.6</v>
       </c>
-      <c r="K259" s="0" t="s">
-        <v>23</v>
+      <c r="M259" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9280,7 +9378,7 @@
         <v>44370</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>129.6</v>
@@ -9306,8 +9404,8 @@
       <c r="J260" s="0" t="n">
         <v>11.6</v>
       </c>
-      <c r="K260" s="0" t="s">
-        <v>22</v>
+      <c r="M260" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9315,7 +9413,7 @@
         <v>44370</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>161.4</v>
@@ -9341,8 +9439,8 @@
       <c r="J261" s="0" t="n">
         <v>3.2</v>
       </c>
-      <c r="K261" s="0" t="s">
-        <v>23</v>
+      <c r="M261" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9350,7 +9448,7 @@
         <v>44370</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>177.6</v>
@@ -9376,8 +9474,8 @@
       <c r="J262" s="0" t="n">
         <v>12.4</v>
       </c>
-      <c r="K262" s="0" t="s">
-        <v>22</v>
+      <c r="M262" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9385,7 +9483,7 @@
         <v>44377</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>166.4</v>
@@ -9411,8 +9509,8 @@
       <c r="J263" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K263" s="0" t="s">
-        <v>23</v>
+      <c r="M263" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9420,7 +9518,7 @@
         <v>44377</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>76.8</v>
@@ -9446,8 +9544,8 @@
       <c r="J264" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="K264" s="0" t="s">
-        <v>23</v>
+      <c r="M264" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9455,7 +9553,7 @@
         <v>44377</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>145.3</v>
@@ -9481,8 +9579,8 @@
       <c r="J265" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="K265" s="0" t="s">
-        <v>23</v>
+      <c r="M265" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9490,7 +9588,7 @@
         <v>44377</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>247.5</v>
@@ -9516,8 +9614,8 @@
       <c r="J266" s="0" t="n">
         <v>12.7</v>
       </c>
-      <c r="K266" s="0" t="s">
-        <v>22</v>
+      <c r="M266" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9525,7 +9623,7 @@
         <v>44377</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>217.7</v>
@@ -9551,8 +9649,8 @@
       <c r="J267" s="0" t="n">
         <v>7.4</v>
       </c>
-      <c r="K267" s="0" t="s">
-        <v>23</v>
+      <c r="M267" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9560,7 +9658,7 @@
         <v>44377</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>161.2</v>
@@ -9586,8 +9684,8 @@
       <c r="J268" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="K268" s="0" t="s">
-        <v>23</v>
+      <c r="M268" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9595,7 +9693,7 @@
         <v>44377</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>150.1</v>
@@ -9621,8 +9719,8 @@
       <c r="J269" s="0" t="n">
         <v>9.8</v>
       </c>
-      <c r="K269" s="0" t="s">
-        <v>23</v>
+      <c r="M269" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9630,7 +9728,7 @@
         <v>44377</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>180.4</v>
@@ -9656,8 +9754,8 @@
       <c r="J270" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K270" s="0" t="s">
-        <v>23</v>
+      <c r="M270" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9665,7 +9763,7 @@
         <v>44377</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>149.7</v>
@@ -9691,8 +9789,8 @@
       <c r="J271" s="0" t="n">
         <v>11.7</v>
       </c>
-      <c r="K271" s="0" t="s">
-        <v>22</v>
+      <c r="M271" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9700,7 +9798,7 @@
         <v>44384</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>223.7</v>
@@ -9726,8 +9824,8 @@
       <c r="J272" s="0" t="n">
         <v>6.2</v>
       </c>
-      <c r="K272" s="0" t="s">
-        <v>23</v>
+      <c r="M272" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9735,7 +9833,7 @@
         <v>44384</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>115</v>
@@ -9761,8 +9859,8 @@
       <c r="J273" s="0" t="n">
         <v>3.2</v>
       </c>
-      <c r="K273" s="0" t="s">
-        <v>23</v>
+      <c r="M273" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9770,7 +9868,7 @@
         <v>44384</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>209.6</v>
@@ -9796,8 +9894,8 @@
       <c r="J274" s="0" t="n">
         <v>3.3</v>
       </c>
-      <c r="K274" s="0" t="s">
-        <v>23</v>
+      <c r="M274" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9805,7 +9903,7 @@
         <v>44384</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>277.2</v>
@@ -9831,8 +9929,8 @@
       <c r="J275" s="0" t="n">
         <v>9.1</v>
       </c>
-      <c r="K275" s="0" t="s">
-        <v>23</v>
+      <c r="M275" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9840,7 +9938,7 @@
         <v>44384</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>273.2</v>
@@ -9866,8 +9964,8 @@
       <c r="J276" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K276" s="0" t="s">
-        <v>23</v>
+      <c r="M276" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9875,7 +9973,7 @@
         <v>44384</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>172.2</v>
@@ -9901,8 +9999,8 @@
       <c r="J277" s="0" t="n">
         <v>1.4</v>
       </c>
-      <c r="K277" s="0" t="s">
-        <v>23</v>
+      <c r="M277" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,7 +10008,7 @@
         <v>44384</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>219.2</v>
@@ -9936,8 +10034,8 @@
       <c r="J278" s="0" t="n">
         <v>10.4</v>
       </c>
-      <c r="K278" s="0" t="s">
-        <v>22</v>
+      <c r="M278" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9945,7 +10043,7 @@
         <v>44384</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>317.8</v>
@@ -9971,8 +10069,8 @@
       <c r="J279" s="0" t="n">
         <v>4.8</v>
       </c>
-      <c r="K279" s="0" t="s">
-        <v>23</v>
+      <c r="M279" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9980,7 +10078,7 @@
         <v>44384</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>160.8</v>
@@ -10006,8 +10104,8 @@
       <c r="J280" s="0" t="n">
         <v>8.4</v>
       </c>
-      <c r="K280" s="0" t="s">
-        <v>23</v>
+      <c r="M280" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10015,7 +10113,7 @@
         <v>44391</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>333.9</v>
@@ -10047,7 +10145,7 @@
         <v>44391</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>187.5</v>
@@ -10079,7 +10177,7 @@
         <v>44391</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C283" s="0" t="n">
         <v>353</v>
@@ -10111,7 +10209,7 @@
         <v>44391</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C284" s="0" t="n">
         <v>373</v>
@@ -10143,7 +10241,7 @@
         <v>44391</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C285" s="0" t="n">
         <v>350.3</v>
@@ -10175,7 +10273,7 @@
         <v>44391</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C286" s="0" t="n">
         <v>258.8</v>
@@ -10207,7 +10305,7 @@
         <v>44391</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C287" s="0" t="n">
         <v>275.6</v>
@@ -10239,7 +10337,7 @@
         <v>44391</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C288" s="0" t="n">
         <v>542.4</v>
@@ -10271,7 +10369,7 @@
         <v>44391</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C289" s="0" t="n">
         <v>208.6</v>
@@ -10303,7 +10401,7 @@
         <v>44398</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C290" s="0" t="n">
         <v>431.8</v>
@@ -10335,7 +10433,7 @@
         <v>44398</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C291" s="0" t="n">
         <v>323.4</v>
@@ -10367,7 +10465,7 @@
         <v>44398</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C292" s="0" t="n">
         <v>469.3</v>
@@ -10399,7 +10497,7 @@
         <v>44398</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C293" s="0" t="n">
         <v>447.1</v>
@@ -10431,7 +10529,7 @@
         <v>44398</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C294" s="0" t="n">
         <v>368.9</v>
@@ -10463,7 +10561,7 @@
         <v>44398</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C295" s="0" t="n">
         <v>398.1</v>
@@ -10495,7 +10593,7 @@
         <v>44398</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C296" s="0" t="n">
         <v>296.8</v>
@@ -10527,7 +10625,7 @@
         <v>44398</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C297" s="0" t="n">
         <v>710.5</v>
@@ -10559,7 +10657,7 @@
         <v>44398</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C298" s="0" t="n">
         <v>280.8</v>
@@ -10591,7 +10689,7 @@
         <v>44405</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C299" s="0" t="n">
         <v>551.7</v>
@@ -10623,7 +10721,7 @@
         <v>44405</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C300" s="0" t="n">
         <v>498.1</v>
@@ -10655,7 +10753,7 @@
         <v>44405</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C301" s="0" t="n">
         <v>586.5</v>
@@ -10687,7 +10785,7 @@
         <v>44405</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C302" s="0" t="n">
         <v>597.2</v>
@@ -10719,7 +10817,7 @@
         <v>44405</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C303" s="0" t="n">
         <v>408.5</v>
@@ -10751,7 +10849,7 @@
         <v>44405</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C304" s="0" t="n">
         <v>526.8</v>
@@ -10783,7 +10881,7 @@
         <v>44405</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C305" s="0" t="n">
         <v>400.2</v>
@@ -10815,7 +10913,7 @@
         <v>44405</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C306" s="0" t="n">
         <v>833.6</v>
@@ -10847,7 +10945,7 @@
         <v>44405</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C307" s="0" t="n">
         <v>407.1</v>
@@ -10879,7 +10977,7 @@
         <v>44412</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C308" s="0" t="n">
         <v>582.2</v>
@@ -10911,7 +11009,7 @@
         <v>44412</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C309" s="0" t="n">
         <v>576.8</v>
@@ -10943,7 +11041,7 @@
         <v>44412</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C310" s="0" t="n">
         <v>607.3</v>
@@ -10975,7 +11073,7 @@
         <v>44412</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C311" s="0" t="n">
         <v>574.1</v>
@@ -11007,7 +11105,7 @@
         <v>44412</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C312" s="0" t="n">
         <v>435.3</v>
@@ -11039,7 +11137,7 @@
         <v>44412</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C313" s="0" t="n">
         <v>595.5</v>
@@ -11071,7 +11169,7 @@
         <v>44412</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C314" s="0" t="n">
         <v>529.2</v>
@@ -11103,7 +11201,7 @@
         <v>44412</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C315" s="0" t="n">
         <v>762.3</v>
@@ -11135,7 +11233,7 @@
         <v>44412</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C316" s="0" t="n">
         <v>495.2</v>
@@ -11167,7 +11265,7 @@
         <v>44419</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C317" s="0" t="n">
         <v>524.3</v>
@@ -11199,7 +11297,7 @@
         <v>44419</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C318" s="0" t="n">
         <v>521.3</v>
@@ -11231,7 +11329,7 @@
         <v>44419</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C319" s="0" t="n">
         <v>533.7</v>
@@ -11263,7 +11361,7 @@
         <v>44419</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C320" s="0" t="n">
         <v>459</v>
@@ -11295,7 +11393,7 @@
         <v>44419</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C321" s="0" t="n">
         <v>404.6</v>
@@ -11327,7 +11425,7 @@
         <v>44419</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C322" s="0" t="n">
         <v>595.5</v>
@@ -11359,7 +11457,7 @@
         <v>44419</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C323" s="0" t="n">
         <v>576</v>
@@ -11391,7 +11489,7 @@
         <v>44419</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C324" s="0" t="n">
         <v>599.3</v>
@@ -11423,7 +11521,7 @@
         <v>44419</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C325" s="0" t="n">
         <v>494.4</v>
@@ -11455,7 +11553,7 @@
         <v>44426</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C326" s="0" t="n">
         <v>386.5</v>
@@ -11487,7 +11585,7 @@
         <v>44426</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C327" s="0" t="n">
         <v>364.6</v>
@@ -11519,7 +11617,7 @@
         <v>44426</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C328" s="0" t="n">
         <v>370.3</v>
@@ -11551,7 +11649,7 @@
         <v>44426</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C329" s="0" t="n">
         <v>335.8</v>
@@ -11583,7 +11681,7 @@
         <v>44426</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C330" s="0" t="n">
         <v>307.7</v>
@@ -11615,7 +11713,7 @@
         <v>44426</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C331" s="0" t="n">
         <v>468.3</v>
@@ -11647,7 +11745,7 @@
         <v>44426</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C332" s="0" t="n">
         <v>422.1</v>
@@ -11679,7 +11777,7 @@
         <v>44426</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C333" s="0" t="n">
         <v>407.2</v>
@@ -11711,7 +11809,7 @@
         <v>44426</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C334" s="0" t="n">
         <v>404.5</v>
@@ -11743,7 +11841,7 @@
         <v>44433</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C335" s="0" t="n">
         <v>286.8</v>
@@ -11775,7 +11873,7 @@
         <v>44433</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C336" s="0" t="n">
         <v>260.3</v>
@@ -11807,7 +11905,7 @@
         <v>44433</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C337" s="0" t="n">
         <v>258.2</v>
@@ -11839,7 +11937,7 @@
         <v>44433</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C338" s="0" t="n">
         <v>233.8</v>
@@ -11871,7 +11969,7 @@
         <v>44433</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C339" s="0" t="n">
         <v>232.9</v>
@@ -11903,7 +12001,7 @@
         <v>44433</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C340" s="0" t="n">
         <v>363.2</v>
@@ -11935,7 +12033,7 @@
         <v>44433</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C341" s="0" t="n">
         <v>279.5</v>
@@ -11967,7 +12065,7 @@
         <v>44433</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C342" s="0" t="n">
         <v>271.2</v>
@@ -11999,7 +12097,7 @@
         <v>44433</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C343" s="0" t="n">
         <v>352.3</v>
@@ -12031,7 +12129,7 @@
         <v>44440</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C344" s="0" t="n">
         <v>209.2</v>
@@ -12063,7 +12161,7 @@
         <v>44440</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C345" s="0" t="n">
         <v>198.1</v>
@@ -12095,7 +12193,7 @@
         <v>44440</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C346" s="0" t="n">
         <v>174.3</v>
@@ -12127,7 +12225,7 @@
         <v>44440</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C347" s="0" t="n">
         <v>169.2</v>
@@ -12159,7 +12257,7 @@
         <v>44440</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C348" s="0" t="n">
         <v>176.4</v>
@@ -12191,7 +12289,7 @@
         <v>44440</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C349" s="0" t="n">
         <v>281.3</v>
@@ -12223,7 +12321,7 @@
         <v>44440</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C350" s="0" t="n">
         <v>199.2</v>
@@ -12255,7 +12353,7 @@
         <v>44440</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C351" s="0" t="n">
         <v>183.6</v>
@@ -12287,7 +12385,7 @@
         <v>44440</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C352" s="0" t="n">
         <v>270.4</v>
@@ -12319,7 +12417,7 @@
         <v>44447</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C353" s="0" t="n">
         <v>126.5</v>
@@ -12351,7 +12449,7 @@
         <v>44447</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C354" s="0" t="n">
         <v>137.9</v>
@@ -12383,7 +12481,7 @@
         <v>44447</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C355" s="0" t="n">
         <v>93.6</v>
@@ -12415,7 +12513,7 @@
         <v>44447</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C356" s="0" t="n">
         <v>97.5</v>
@@ -12447,7 +12545,7 @@
         <v>44447</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C357" s="0" t="n">
         <v>113.4</v>
@@ -12479,7 +12577,7 @@
         <v>44447</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C358" s="0" t="n">
         <v>169.2</v>
@@ -12511,7 +12609,7 @@
         <v>44447</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C359" s="0" t="n">
         <v>115.3</v>
@@ -12543,7 +12641,7 @@
         <v>44447</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C360" s="0" t="n">
         <v>122.4</v>
@@ -12575,7 +12673,7 @@
         <v>44447</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C361" s="0" t="n">
         <v>154.3</v>
@@ -12607,7 +12705,7 @@
         <v>44454</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C362" s="0" t="n">
         <v>83.3</v>
@@ -12639,7 +12737,7 @@
         <v>44454</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C363" s="0" t="n">
         <v>109.8</v>
@@ -12671,7 +12769,7 @@
         <v>44454</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C364" s="0" t="n">
         <v>56.8</v>
@@ -12703,7 +12801,7 @@
         <v>44454</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C365" s="0" t="n">
         <v>58.9</v>
@@ -12735,7 +12833,7 @@
         <v>44454</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C366" s="0" t="n">
         <v>75.9</v>
@@ -12767,7 +12865,7 @@
         <v>44454</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C367" s="0" t="n">
         <v>105.7</v>
@@ -12799,7 +12897,7 @@
         <v>44454</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C368" s="0" t="n">
         <v>58.3</v>
@@ -12831,7 +12929,7 @@
         <v>44454</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C369" s="0" t="n">
         <v>88.4</v>
@@ -12863,7 +12961,7 @@
         <v>44454</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C370" s="0" t="n">
         <v>98.2</v>
@@ -12895,7 +12993,7 @@
         <v>44461</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C371" s="0" t="n">
         <v>62.7</v>
@@ -12927,7 +13025,7 @@
         <v>44461</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C372" s="0" t="n">
         <v>100.6</v>
@@ -12959,7 +13057,7 @@
         <v>44461</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C373" s="0" t="n">
         <v>42.6</v>
@@ -12991,7 +13089,7 @@
         <v>44461</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C374" s="0" t="n">
         <v>40.3</v>
@@ -13023,7 +13121,7 @@
         <v>44461</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C375" s="0" t="n">
         <v>57</v>
@@ -13055,7 +13153,7 @@
         <v>44461</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C376" s="0" t="n">
         <v>81.4</v>
@@ -13087,7 +13185,7 @@
         <v>44461</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C377" s="0" t="n">
         <v>32</v>
@@ -13119,7 +13217,7 @@
         <v>44461</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C378" s="0" t="n">
         <v>69.9</v>
@@ -13151,7 +13249,7 @@
         <v>44461</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C379" s="0" t="n">
         <v>70.2</v>
@@ -13183,7 +13281,7 @@
         <v>44468</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C380" s="0" t="n">
         <v>50</v>
@@ -13215,7 +13313,7 @@
         <v>44468</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C381" s="0" t="n">
         <v>93</v>
@@ -13247,7 +13345,7 @@
         <v>44468</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C382" s="0" t="n">
         <v>31</v>
@@ -13279,7 +13377,7 @@
         <v>44468</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C383" s="0" t="n">
         <v>27.8</v>
@@ -13311,7 +13409,7 @@
         <v>44468</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C384" s="0" t="n">
         <v>41.8</v>
@@ -13343,7 +13441,7 @@
         <v>44468</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C385" s="0" t="n">
         <v>71.3</v>
@@ -13375,7 +13473,7 @@
         <v>44468</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C386" s="0" t="n">
         <v>27.9</v>
@@ -13407,7 +13505,7 @@
         <v>44468</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C387" s="0" t="n">
         <v>58.9</v>
@@ -13439,7 +13537,7 @@
         <v>44468</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C388" s="0" t="n">
         <v>52.6</v>
@@ -13471,7 +13569,7 @@
         <v>44475</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C389" s="0" t="n">
         <v>36.4</v>
@@ -13503,7 +13601,7 @@
         <v>44475</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C390" s="0" t="n">
         <v>76.8</v>
@@ -13535,7 +13633,7 @@
         <v>44475</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C391" s="0" t="n">
         <v>19.1</v>
@@ -13567,7 +13665,7 @@
         <v>44475</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C392" s="0" t="n">
         <v>19.3</v>
@@ -13599,7 +13697,7 @@
         <v>44475</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C393" s="0" t="n">
         <v>22</v>
@@ -13631,7 +13729,7 @@
         <v>44475</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C394" s="0" t="n">
         <v>57.2</v>
@@ -13663,7 +13761,7 @@
         <v>44475</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C395" s="0" t="n">
         <v>22</v>
@@ -13695,7 +13793,7 @@
         <v>44475</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C396" s="0" t="n">
         <v>45.8</v>
@@ -13727,7 +13825,7 @@
         <v>44475</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C397" s="0" t="n">
         <v>37.1</v>
@@ -13759,7 +13857,7 @@
         <v>44482</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C398" s="0" t="n">
         <v>29</v>
@@ -13791,7 +13889,7 @@
         <v>44482</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C399" s="0" t="n">
         <v>63.6</v>
@@ -13823,7 +13921,7 @@
         <v>44482</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C400" s="0" t="n">
         <v>12.9</v>
@@ -13855,7 +13953,7 @@
         <v>44482</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C401" s="0" t="n">
         <v>19.5</v>
@@ -13887,7 +13985,7 @@
         <v>44482</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C402" s="0" t="n">
         <v>19</v>
@@ -13919,7 +14017,7 @@
         <v>44482</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C403" s="0" t="n">
         <v>46.2</v>
@@ -13951,7 +14049,7 @@
         <v>44482</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C404" s="0" t="n">
         <v>15.7</v>
@@ -13983,7 +14081,7 @@
         <v>44482</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C405" s="0" t="n">
         <v>39.3</v>
@@ -14015,7 +14113,7 @@
         <v>44482</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C406" s="0" t="n">
         <v>25.3</v>
@@ -14047,7 +14145,7 @@
         <v>44489</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C407" s="0" t="n">
         <v>30.4</v>
@@ -14079,7 +14177,7 @@
         <v>44489</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C408" s="0" t="n">
         <v>61</v>
@@ -14111,7 +14209,7 @@
         <v>44489</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C409" s="0" t="n">
         <v>13.4</v>
@@ -14143,7 +14241,7 @@
         <v>44489</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C410" s="0" t="n">
         <v>24.8</v>
@@ -14175,7 +14273,7 @@
         <v>44489</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C411" s="0" t="n">
         <v>27.6</v>
@@ -14207,7 +14305,7 @@
         <v>44489</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C412" s="0" t="n">
         <v>55.9</v>
@@ -14239,7 +14337,7 @@
         <v>44489</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C413" s="0" t="n">
         <v>18.5</v>
@@ -14271,7 +14369,7 @@
         <v>44489</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C414" s="0" t="n">
         <v>40</v>
@@ -14303,7 +14401,7 @@
         <v>44489</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C415" s="0" t="n">
         <v>21.6</v>
@@ -14335,7 +14433,7 @@
         <v>44496</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C416" s="0" t="n">
         <v>33.2</v>
@@ -14367,7 +14465,7 @@
         <v>44496</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C417" s="0" t="n">
         <v>58.4</v>
@@ -14399,7 +14497,7 @@
         <v>44496</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C418" s="0" t="n">
         <v>17.6</v>
@@ -14431,7 +14529,7 @@
         <v>44496</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C419" s="0" t="n">
         <v>31.7</v>
@@ -14463,7 +14561,7 @@
         <v>44496</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C420" s="0" t="n">
         <v>29.4</v>
@@ -14495,7 +14593,7 @@
         <v>44496</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C421" s="0" t="n">
         <v>54</v>
@@ -14527,7 +14625,7 @@
         <v>44496</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C422" s="0" t="n">
         <v>31.5</v>
@@ -14559,7 +14657,7 @@
         <v>44496</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C423" s="0" t="n">
         <v>43.2</v>
@@ -14591,7 +14689,7 @@
         <v>44496</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C424" s="0" t="n">
         <v>22.1</v>
@@ -14623,7 +14721,7 @@
         <v>44503</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C425" s="0" t="n">
         <v>32.8</v>
@@ -14655,7 +14753,7 @@
         <v>44503</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C426" s="0" t="n">
         <v>47.1</v>
@@ -14687,7 +14785,7 @@
         <v>44503</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C427" s="0" t="n">
         <v>18.8</v>
@@ -14719,7 +14817,7 @@
         <v>44503</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C428" s="0" t="n">
         <v>41.3</v>
@@ -14751,7 +14849,7 @@
         <v>44503</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C429" s="0" t="n">
         <v>22.4</v>
@@ -14783,7 +14881,7 @@
         <v>44503</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C430" s="0" t="n">
         <v>59.7</v>
@@ -14815,7 +14913,7 @@
         <v>44503</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C431" s="0" t="n">
         <v>34.2</v>
@@ -14847,7 +14945,7 @@
         <v>44503</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C432" s="0" t="n">
         <v>45.3</v>
@@ -14879,7 +14977,7 @@
         <v>44503</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C433" s="0" t="n">
         <v>19</v>
@@ -14911,7 +15009,7 @@
         <v>44507</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C434" s="0" t="n">
         <v>39.8</v>
@@ -14943,7 +15041,7 @@
         <v>44507</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C435" s="0" t="n">
         <v>50.1</v>
@@ -14975,7 +15073,7 @@
         <v>44507</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C436" s="0" t="n">
         <v>26.4</v>
@@ -15007,7 +15105,7 @@
         <v>44507</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C437" s="0" t="n">
         <v>50.7</v>
@@ -15039,7 +15137,7 @@
         <v>44507</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C438" s="0" t="n">
         <v>25.9</v>
@@ -15071,7 +15169,7 @@
         <v>44507</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C439" s="0" t="n">
         <v>77.4</v>
@@ -15103,7 +15201,7 @@
         <v>44507</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C440" s="0" t="n">
         <v>36</v>
@@ -15135,7 +15233,7 @@
         <v>44507</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C441" s="0" t="n">
         <v>56.1</v>
@@ -15167,7 +15265,7 @@
         <v>44507</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C442" s="0" t="n">
         <v>23.1</v>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M460"/>
+  <dimension ref="A1:M469"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H461" activeCellId="0" sqref="H461"/>
+      <selection pane="bottomLeft" activeCell="C470" activeCellId="0" sqref="C470"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -16009,6 +16009,321 @@
       </c>
       <c r="L460" s="0" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B461" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C461" s="0" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="D461" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="E461" s="0" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="F461" s="0" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="G461" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I461" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J461" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K461" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L461" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C462" s="0" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="D462" s="0" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="E462" s="0" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="F462" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G462" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I462" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J462" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K462" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L462" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C463" s="0" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="D463" s="0" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="E463" s="0" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="F463" s="0" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="G463" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="I463" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J463" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K463" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L463" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C464" s="0" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="D464" s="0" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="E464" s="0" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F464" s="0" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="G464" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I464" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J464" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K464" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="L464" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B465" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C465" s="0" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="D465" s="0" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="E465" s="0" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="F465" s="0" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="G465" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="I465" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J465" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K465" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L465" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C466" s="0" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="D466" s="0" t="n">
+        <v>89.6</v>
+      </c>
+      <c r="E466" s="0" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="F466" s="0" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="G466" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I466" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J466" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K466" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L466" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C467" s="0" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="D467" s="0" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E467" s="0" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="F467" s="0" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="G467" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="I467" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J467" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K467" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L467" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C468" s="0" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="D468" s="0" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="E468" s="0" t="n">
+        <v>108.1</v>
+      </c>
+      <c r="F468" s="0" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="G468" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="I468" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J468" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="K468" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L468" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="4" t="n">
+        <v>44538</v>
+      </c>
+      <c r="B469" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C469" s="0" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="D469" s="0" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="E469" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="F469" s="0" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="G469" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I469" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J469" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K469" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L469" s="0" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M469"/>
+  <dimension ref="A1:M478"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C470" activeCellId="0" sqref="C470"/>
+      <selection pane="bottomLeft" activeCell="C479" activeCellId="0" sqref="C479"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -16323,6 +16323,321 @@
         <v>3.9</v>
       </c>
       <c r="L469" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C470" s="0" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="D470" s="0" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="E470" s="0" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="F470" s="0" t="n">
+        <v>74.9</v>
+      </c>
+      <c r="G470" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I470" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J470" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="K470" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L470" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B471" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C471" s="0" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="D471" s="0" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="E471" s="0" t="n">
+        <v>88.1</v>
+      </c>
+      <c r="F471" s="0" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="G471" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="I471" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J471" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K471" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L471" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C472" s="0" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="D472" s="0" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="E472" s="0" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="F472" s="0" t="n">
+        <v>80.1</v>
+      </c>
+      <c r="G472" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I472" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J472" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K472" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L472" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C473" s="0" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="D473" s="0" t="n">
+        <v>205</v>
+      </c>
+      <c r="E473" s="0" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="F473" s="0" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="G473" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I473" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J473" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K473" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L473" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C474" s="0" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="D474" s="0" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="E474" s="0" t="n">
+        <v>98.4</v>
+      </c>
+      <c r="F474" s="0" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="G474" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I474" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J474" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K474" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L474" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C475" s="0" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="D475" s="0" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="E475" s="0" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="F475" s="0" t="n">
+        <v>79.4</v>
+      </c>
+      <c r="G475" s="0" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="I475" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J475" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K475" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L475" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C476" s="0" t="n">
+        <v>221.9</v>
+      </c>
+      <c r="D476" s="0" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="E476" s="0" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="F476" s="0" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="G476" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="I476" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J476" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K476" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L476" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B477" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C477" s="0" t="n">
+        <v>306.2</v>
+      </c>
+      <c r="D477" s="0" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="E477" s="0" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="F477" s="0" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="G477" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="I477" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J477" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K477" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L477" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="4" t="n">
+        <v>44545</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C478" s="0" t="n">
+        <v>240.3</v>
+      </c>
+      <c r="D478" s="0" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="E478" s="0" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="F478" s="0" t="n">
+        <v>68.9</v>
+      </c>
+      <c r="G478" s="0" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="I478" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J478" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K478" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L478" s="0" t="n">
         <v>0.6</v>
       </c>
     </row>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M478"/>
+  <dimension ref="A1:M487"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C479" activeCellId="0" sqref="C479"/>
+      <selection pane="bottomLeft" activeCell="C488" activeCellId="0" sqref="C488"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -16639,6 +16639,321 @@
       </c>
       <c r="L478" s="0" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B479" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C479" s="0" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="D479" s="0" t="n">
+        <v>320.6</v>
+      </c>
+      <c r="E479" s="0" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="F479" s="0" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="G479" s="0" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I479" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J479" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K479" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="L479" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C480" s="0" t="n">
+        <v>334.1</v>
+      </c>
+      <c r="D480" s="0" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="E480" s="0" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="F480" s="0" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="G480" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I480" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J480" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K480" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L480" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B481" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C481" s="0" t="n">
+        <v>489.5</v>
+      </c>
+      <c r="D481" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="E481" s="0" t="n">
+        <v>222.1</v>
+      </c>
+      <c r="F481" s="0" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="G481" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="I481" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J481" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K481" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="L481" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C482" s="0" t="n">
+        <v>728.6</v>
+      </c>
+      <c r="D482" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="E482" s="0" t="n">
+        <v>279.2</v>
+      </c>
+      <c r="F482" s="0" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="G482" s="0" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I482" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J482" s="0" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="K482" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="L482" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C483" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="D483" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="E483" s="0" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="F483" s="0" t="n">
+        <v>106.8</v>
+      </c>
+      <c r="G483" s="0" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="I483" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J483" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K483" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L483" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B484" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C484" s="0" t="n">
+        <v>467.5</v>
+      </c>
+      <c r="D484" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="E484" s="0" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="F484" s="0" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="G484" s="0" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I484" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J484" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K484" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L484" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C485" s="0" t="n">
+        <v>410.1</v>
+      </c>
+      <c r="D485" s="0" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="E485" s="0" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="F485" s="0" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G485" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I485" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J485" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K485" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L485" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C486" s="0" t="n">
+        <v>548.8</v>
+      </c>
+      <c r="D486" s="0" t="n">
+        <v>330.1</v>
+      </c>
+      <c r="E486" s="0" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="F486" s="0" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="G486" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="I486" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J486" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="K486" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="L486" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="4" t="n">
+        <v>44551</v>
+      </c>
+      <c r="B487" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C487" s="0" t="n">
+        <v>492.1</v>
+      </c>
+      <c r="D487" s="0" t="n">
+        <v>322.6</v>
+      </c>
+      <c r="E487" s="0" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="F487" s="0" t="n">
+        <v>112.8</v>
+      </c>
+      <c r="G487" s="0" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="I487" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J487" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K487" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L487" s="0" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,17 +318,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M487"/>
+  <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C488" activeCellId="0" sqref="C488"/>
+      <selection pane="bottomLeft" activeCell="C497" activeCellId="0" sqref="C497"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
   </cols>
   <sheetData>
@@ -16954,6 +16954,321 @@
       </c>
       <c r="L487" s="0" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C488" s="0" t="n">
+        <v>1079.9</v>
+      </c>
+      <c r="D488" s="0" t="n">
+        <v>574.4</v>
+      </c>
+      <c r="E488" s="0" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="F488" s="0" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="G488" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I488" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J488" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K488" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L488" s="0" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B489" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C489" s="0" t="n">
+        <v>861.6</v>
+      </c>
+      <c r="D489" s="0" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="E489" s="0" t="n">
+        <v>217.2</v>
+      </c>
+      <c r="F489" s="0" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="G489" s="0" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I489" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J489" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K489" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="L489" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C490" s="0" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="D490" s="0" t="n">
+        <v>489</v>
+      </c>
+      <c r="E490" s="0" t="n">
+        <v>378.9</v>
+      </c>
+      <c r="F490" s="0" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="G490" s="0" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I490" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J490" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K490" s="0" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L490" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B491" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C491" s="0" t="n">
+        <v>1842.7</v>
+      </c>
+      <c r="D491" s="0" t="n">
+        <v>1039.3</v>
+      </c>
+      <c r="E491" s="0" t="n">
+        <v>564.9</v>
+      </c>
+      <c r="F491" s="0" t="n">
+        <v>302.3</v>
+      </c>
+      <c r="G491" s="0" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="I491" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J491" s="0" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K491" s="0" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="L491" s="0" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C492" s="0" t="n">
+        <v>1121.4</v>
+      </c>
+      <c r="D492" s="0" t="n">
+        <v>693.2</v>
+      </c>
+      <c r="E492" s="0" t="n">
+        <v>361.6</v>
+      </c>
+      <c r="F492" s="0" t="n">
+        <v>205.7</v>
+      </c>
+      <c r="G492" s="0" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="I492" s="0" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J492" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K492" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L492" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B493" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C493" s="0" t="n">
+        <v>894.2</v>
+      </c>
+      <c r="D493" s="0" t="n">
+        <v>456.2</v>
+      </c>
+      <c r="E493" s="0" t="n">
+        <v>341.5</v>
+      </c>
+      <c r="F493" s="0" t="n">
+        <v>179.3</v>
+      </c>
+      <c r="G493" s="0" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="I493" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J493" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K493" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L493" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C494" s="0" t="n">
+        <v>1062.6</v>
+      </c>
+      <c r="D494" s="0" t="n">
+        <v>617.4</v>
+      </c>
+      <c r="E494" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="F494" s="0" t="n">
+        <v>243</v>
+      </c>
+      <c r="G494" s="0" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="I494" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J494" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="K494" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="L494" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B495" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C495" s="0" t="n">
+        <v>1017.7</v>
+      </c>
+      <c r="D495" s="0" t="n">
+        <v>524</v>
+      </c>
+      <c r="E495" s="0" t="n">
+        <v>339.2</v>
+      </c>
+      <c r="F495" s="0" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="G495" s="0" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="I495" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J495" s="0" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="K495" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L495" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="4" t="n">
+        <v>44559</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C496" s="0" t="n">
+        <v>985.7</v>
+      </c>
+      <c r="D496" s="0" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="E496" s="0" t="n">
+        <v>303.7</v>
+      </c>
+      <c r="F496" s="0" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="G496" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I496" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J496" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K496" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="L496" s="0" t="n">
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M496"/>
+  <dimension ref="A1:M505"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C497" activeCellId="0" sqref="C497"/>
+      <selection pane="bottomLeft" activeCell="C506" activeCellId="0" sqref="C506"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -17269,6 +17269,321 @@
       </c>
       <c r="L496" s="0" t="n">
         <v>2.3</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B497" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C497" s="0" t="n">
+        <v>1529.9</v>
+      </c>
+      <c r="D497" s="0" t="n">
+        <v>719.6</v>
+      </c>
+      <c r="E497" s="0" t="n">
+        <v>569.8</v>
+      </c>
+      <c r="F497" s="0" t="n">
+        <v>311.6</v>
+      </c>
+      <c r="G497" s="0" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="I497" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J497" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K497" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="L497" s="0" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C498" s="0" t="n">
+        <v>1444.2</v>
+      </c>
+      <c r="D498" s="0" t="n">
+        <v>795.9</v>
+      </c>
+      <c r="E498" s="0" t="n">
+        <v>522.6</v>
+      </c>
+      <c r="F498" s="0" t="n">
+        <v>355.2</v>
+      </c>
+      <c r="G498" s="0" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="I498" s="0" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J498" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="K498" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L498" s="0" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B499" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C499" s="0" t="n">
+        <v>1383.6</v>
+      </c>
+      <c r="D499" s="0" t="n">
+        <v>368.8</v>
+      </c>
+      <c r="E499" s="0" t="n">
+        <v>581.3</v>
+      </c>
+      <c r="F499" s="0" t="n">
+        <v>308.4</v>
+      </c>
+      <c r="G499" s="0" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="I499" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J499" s="0" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K499" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L499" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C500" s="0" t="n">
+        <v>2253.8</v>
+      </c>
+      <c r="D500" s="0" t="n">
+        <v>971.3</v>
+      </c>
+      <c r="E500" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="F500" s="0" t="n">
+        <v>388.7</v>
+      </c>
+      <c r="G500" s="0" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="I500" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="J500" s="0" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="K500" s="0" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="L500" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B501" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C501" s="0" t="n">
+        <v>1766.5</v>
+      </c>
+      <c r="D501" s="0" t="n">
+        <v>871.1</v>
+      </c>
+      <c r="E501" s="0" t="n">
+        <v>606.9</v>
+      </c>
+      <c r="F501" s="0" t="n">
+        <v>347.3</v>
+      </c>
+      <c r="G501" s="0" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="I501" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J501" s="0" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="K501" s="0" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L501" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C502" s="0" t="n">
+        <v>1246.3</v>
+      </c>
+      <c r="D502" s="0" t="n">
+        <v>585.4</v>
+      </c>
+      <c r="E502" s="0" t="n">
+        <v>534.4</v>
+      </c>
+      <c r="F502" s="0" t="n">
+        <v>292.7</v>
+      </c>
+      <c r="G502" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="I502" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J502" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K502" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="L502" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B503" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C503" s="0" t="n">
+        <v>1810.8</v>
+      </c>
+      <c r="D503" s="0" t="n">
+        <v>905.3</v>
+      </c>
+      <c r="E503" s="0" t="n">
+        <v>708.7</v>
+      </c>
+      <c r="F503" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="G503" s="0" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="I503" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J503" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K503" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L503" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C504" s="0" t="n">
+        <v>1414.5</v>
+      </c>
+      <c r="D504" s="0" t="n">
+        <v>671.5</v>
+      </c>
+      <c r="E504" s="0" t="n">
+        <v>507.2</v>
+      </c>
+      <c r="F504" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="G504" s="0" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="I504" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="J504" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K504" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L504" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="4" t="n">
+        <v>44565</v>
+      </c>
+      <c r="B505" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C505" s="0" t="n">
+        <v>1334.6</v>
+      </c>
+      <c r="D505" s="0" t="n">
+        <v>586.3</v>
+      </c>
+      <c r="E505" s="0" t="n">
+        <v>485.4</v>
+      </c>
+      <c r="F505" s="0" t="n">
+        <v>251.8</v>
+      </c>
+      <c r="G505" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="I505" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J505" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K505" s="0" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L505" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M505"/>
+  <dimension ref="A1:M514"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A491" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C506" activeCellId="0" sqref="C506"/>
+      <selection pane="bottomLeft" activeCell="C515" activeCellId="0" sqref="C515"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -17584,6 +17584,321 @@
       </c>
       <c r="L505" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C506" s="0" t="n">
+        <v>1456.7</v>
+      </c>
+      <c r="D506" s="0" t="n">
+        <v>509.7</v>
+      </c>
+      <c r="E506" s="0" t="n">
+        <v>771.8</v>
+      </c>
+      <c r="F506" s="0" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="G506" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="I506" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J506" s="0" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K506" s="0" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="L506" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B507" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C507" s="0" t="n">
+        <v>2159.5</v>
+      </c>
+      <c r="D507" s="0" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="E507" s="0" t="n">
+        <v>972.2</v>
+      </c>
+      <c r="F507" s="0" t="n">
+        <v>441.6</v>
+      </c>
+      <c r="G507" s="0" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="I507" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J507" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K507" s="0" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="L507" s="0" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C508" s="0" t="n">
+        <v>1327.4</v>
+      </c>
+      <c r="D508" s="0" t="n">
+        <v>453.8</v>
+      </c>
+      <c r="E508" s="0" t="n">
+        <v>729.5</v>
+      </c>
+      <c r="F508" s="0" t="n">
+        <v>292.6</v>
+      </c>
+      <c r="G508" s="0" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="I508" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J508" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="K508" s="0" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="L508" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B509" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C509" s="0" t="n">
+        <v>1953.7</v>
+      </c>
+      <c r="D509" s="0" t="n">
+        <v>718.5</v>
+      </c>
+      <c r="E509" s="0" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F509" s="0" t="n">
+        <v>421.1</v>
+      </c>
+      <c r="G509" s="0" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="I509" s="0" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J509" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K509" s="0" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L509" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C510" s="0" t="n">
+        <v>1660.1</v>
+      </c>
+      <c r="D510" s="0" t="n">
+        <v>554</v>
+      </c>
+      <c r="E510" s="0" t="n">
+        <v>904.4</v>
+      </c>
+      <c r="F510" s="0" t="n">
+        <v>361.6</v>
+      </c>
+      <c r="G510" s="0" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="I510" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J510" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K510" s="0" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L510" s="0" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C511" s="0" t="n">
+        <v>1294.5</v>
+      </c>
+      <c r="D511" s="0" t="n">
+        <v>465.8</v>
+      </c>
+      <c r="E511" s="0" t="n">
+        <v>683.1</v>
+      </c>
+      <c r="F511" s="0" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="G511" s="0" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="I511" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J511" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K511" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L511" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C512" s="0" t="n">
+        <v>1846.6</v>
+      </c>
+      <c r="D512" s="0" t="n">
+        <v>624.2</v>
+      </c>
+      <c r="E512" s="0" t="n">
+        <v>1021.9</v>
+      </c>
+      <c r="F512" s="0" t="n">
+        <v>411.9</v>
+      </c>
+      <c r="G512" s="0" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="I512" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="J512" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K512" s="0" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L512" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B513" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C513" s="0" t="n">
+        <v>1255.6</v>
+      </c>
+      <c r="D513" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="E513" s="0" t="n">
+        <v>637</v>
+      </c>
+      <c r="F513" s="0" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="G513" s="0" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="I513" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J513" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K513" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="L513" s="0" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="4" t="n">
+        <v>44573</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C514" s="0" t="n">
+        <v>1067.8</v>
+      </c>
+      <c r="D514" s="0" t="n">
+        <v>329</v>
+      </c>
+      <c r="E514" s="0" t="n">
+        <v>597.3</v>
+      </c>
+      <c r="F514" s="0" t="n">
+        <v>233.6</v>
+      </c>
+      <c r="G514" s="0" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I514" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="J514" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K514" s="0" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="L514" s="0" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M514"/>
+  <dimension ref="A1:M523"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C515" activeCellId="0" sqref="C515"/>
+      <selection pane="bottomLeft" activeCell="C524" activeCellId="0" sqref="C524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -17899,6 +17899,322 @@
       </c>
       <c r="L514" s="0" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B515" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C515" s="0" t="n">
+        <v>1361.5</v>
+      </c>
+      <c r="D515" s="0" t="n">
+        <v>547.1</v>
+      </c>
+      <c r="E515" s="0" t="n">
+        <v>855.1</v>
+      </c>
+      <c r="F515" s="0" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="G515" s="0" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="I515" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="J515" s="0" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K515" s="0" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="L515" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C516" s="0" t="n">
+        <v>2389.1</v>
+      </c>
+      <c r="D516" s="0" t="n">
+        <v>1010.1</v>
+      </c>
+      <c r="E516" s="0" t="n">
+        <v>1107.7</v>
+      </c>
+      <c r="F516" s="0" t="n">
+        <v>507.6</v>
+      </c>
+      <c r="G516" s="0" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="H516" s="0"/>
+      <c r="I516" s="0" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="J516" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="K516" s="0" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L516" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B517" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C517" s="0" t="n">
+        <v>1253.3</v>
+      </c>
+      <c r="D517" s="0" t="n">
+        <v>511.3</v>
+      </c>
+      <c r="E517" s="0" t="n">
+        <v>880.2</v>
+      </c>
+      <c r="F517" s="0" t="n">
+        <v>402.8</v>
+      </c>
+      <c r="G517" s="0" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="I517" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J517" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K517" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="L517" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C518" s="0" t="n">
+        <v>1740.1</v>
+      </c>
+      <c r="D518" s="0" t="n">
+        <v>680.4</v>
+      </c>
+      <c r="E518" s="0" t="n">
+        <v>967.6</v>
+      </c>
+      <c r="F518" s="0" t="n">
+        <v>403.3</v>
+      </c>
+      <c r="G518" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="I518" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J518" s="0" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K518" s="0" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="L518" s="0" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B519" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C519" s="0" t="n">
+        <v>1513.1</v>
+      </c>
+      <c r="D519" s="0" t="n">
+        <v>594.9</v>
+      </c>
+      <c r="E519" s="0" t="n">
+        <v>1051.1</v>
+      </c>
+      <c r="F519" s="0" t="n">
+        <v>473.6</v>
+      </c>
+      <c r="G519" s="0" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="I519" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="J519" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K519" s="0" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="L519" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C520" s="0" t="n">
+        <v>1348.9</v>
+      </c>
+      <c r="D520" s="0" t="n">
+        <v>568.4</v>
+      </c>
+      <c r="E520" s="0" t="n">
+        <v>867.8</v>
+      </c>
+      <c r="F520" s="0" t="n">
+        <v>475.5</v>
+      </c>
+      <c r="G520" s="0" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="I520" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="J520" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K520" s="0" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L520" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B521" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C521" s="0" t="n">
+        <v>1505.8</v>
+      </c>
+      <c r="D521" s="0" t="n">
+        <v>578.9</v>
+      </c>
+      <c r="E521" s="0" t="n">
+        <v>1044.5</v>
+      </c>
+      <c r="F521" s="0" t="n">
+        <v>484.5</v>
+      </c>
+      <c r="G521" s="0" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="I521" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J521" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K521" s="0" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="L521" s="0" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C522" s="0" t="n">
+        <v>1131.3</v>
+      </c>
+      <c r="D522" s="0" t="n">
+        <v>466.9</v>
+      </c>
+      <c r="E522" s="0" t="n">
+        <v>726.1</v>
+      </c>
+      <c r="F522" s="0" t="n">
+        <v>332.9</v>
+      </c>
+      <c r="G522" s="0" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="I522" s="0" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J522" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K522" s="0" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L522" s="0" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="4" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B523" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C523" s="0" t="n">
+        <v>975.4</v>
+      </c>
+      <c r="D523" s="0" t="n">
+        <v>372.5</v>
+      </c>
+      <c r="E523" s="0" t="n">
+        <v>640.4</v>
+      </c>
+      <c r="F523" s="0" t="n">
+        <v>278.9</v>
+      </c>
+      <c r="G523" s="0" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="I523" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J523" s="0" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K523" s="0" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="L523" s="0" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M523"/>
+  <dimension ref="A1:M532"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A509" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C524" activeCellId="0" sqref="C524"/>
+      <selection pane="bottomLeft" activeCell="C533" activeCellId="0" sqref="C533"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.47265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -18215,6 +18215,321 @@
       </c>
       <c r="L523" s="0" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C524" s="0" t="n">
+        <v>1147</v>
+      </c>
+      <c r="D524" s="0" t="n">
+        <v>423</v>
+      </c>
+      <c r="E524" s="0" t="n">
+        <v>855.1</v>
+      </c>
+      <c r="F524" s="0" t="n">
+        <v>329.2</v>
+      </c>
+      <c r="G524" s="0" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="I524" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="J524" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="K524" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="L524" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B525" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C525" s="0" t="n">
+        <v>2136.1</v>
+      </c>
+      <c r="D525" s="0" t="n">
+        <v>857.2</v>
+      </c>
+      <c r="E525" s="0" t="n">
+        <v>1198.4</v>
+      </c>
+      <c r="F525" s="0" t="n">
+        <v>537.2</v>
+      </c>
+      <c r="G525" s="0" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="I525" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J525" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="K525" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="L525" s="0" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C526" s="0" t="n">
+        <v>991.4</v>
+      </c>
+      <c r="D526" s="0" t="n">
+        <v>332.1</v>
+      </c>
+      <c r="E526" s="0" t="n">
+        <v>849.9</v>
+      </c>
+      <c r="F526" s="0" t="n">
+        <v>312.4</v>
+      </c>
+      <c r="G526" s="0" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="I526" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J526" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K526" s="0" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="L526" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B527" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C527" s="0" t="n">
+        <v>1392.8</v>
+      </c>
+      <c r="D527" s="0" t="n">
+        <v>518.3</v>
+      </c>
+      <c r="E527" s="0" t="n">
+        <v>872.8</v>
+      </c>
+      <c r="F527" s="0" t="n">
+        <v>309.1</v>
+      </c>
+      <c r="G527" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I527" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J527" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K527" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="L527" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C528" s="0" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D528" s="0" t="n">
+        <v>439.4</v>
+      </c>
+      <c r="E528" s="0" t="n">
+        <v>997.6</v>
+      </c>
+      <c r="F528" s="0" t="n">
+        <v>360.1</v>
+      </c>
+      <c r="G528" s="0" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="I528" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J528" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K528" s="0" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="L528" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B529" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C529" s="0" t="n">
+        <v>1285.2</v>
+      </c>
+      <c r="D529" s="0" t="n">
+        <v>494.5</v>
+      </c>
+      <c r="E529" s="0" t="n">
+        <v>1036.3</v>
+      </c>
+      <c r="F529" s="0" t="n">
+        <v>400.1</v>
+      </c>
+      <c r="G529" s="0" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I529" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J529" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="K529" s="0" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="L529" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C530" s="0" t="n">
+        <v>1301.8</v>
+      </c>
+      <c r="D530" s="0" t="n">
+        <v>495.4</v>
+      </c>
+      <c r="E530" s="0" t="n">
+        <v>1118.4</v>
+      </c>
+      <c r="F530" s="0" t="n">
+        <v>435.8</v>
+      </c>
+      <c r="G530" s="0" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="I530" s="0" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="J530" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="K530" s="0" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="L530" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B531" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C531" s="0" t="n">
+        <v>964.6</v>
+      </c>
+      <c r="D531" s="0" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="E531" s="0" t="n">
+        <v>694.9</v>
+      </c>
+      <c r="F531" s="0" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="G531" s="0" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="I531" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J531" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="K531" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="L531" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="4" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C532" s="0" t="n">
+        <v>809</v>
+      </c>
+      <c r="D532" s="0" t="n">
+        <v>301.3</v>
+      </c>
+      <c r="E532" s="0" t="n">
+        <v>658.8</v>
+      </c>
+      <c r="F532" s="0" t="n">
+        <v>293.1</v>
+      </c>
+      <c r="G532" s="0" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="I532" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="J532" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K532" s="0" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="L532" s="0" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M532"/>
+  <dimension ref="A1:M541"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C533" activeCellId="0" sqref="C533"/>
+      <selection pane="bottomLeft" activeCell="C542" activeCellId="0" sqref="C542"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.48828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -18530,6 +18530,321 @@
       </c>
       <c r="L532" s="0" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B533" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C533" s="0" t="n">
+        <v>831.3</v>
+      </c>
+      <c r="D533" s="0" t="n">
+        <v>289.4</v>
+      </c>
+      <c r="E533" s="0" t="n">
+        <v>896.2</v>
+      </c>
+      <c r="F533" s="0" t="n">
+        <v>333.8</v>
+      </c>
+      <c r="G533" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="I533" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J533" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="K533" s="0" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="L533" s="0" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C534" s="0" t="n">
+        <v>1652</v>
+      </c>
+      <c r="D534" s="0" t="n">
+        <v>602.9</v>
+      </c>
+      <c r="E534" s="0" t="n">
+        <v>1699.7</v>
+      </c>
+      <c r="F534" s="0" t="n">
+        <v>661.2</v>
+      </c>
+      <c r="G534" s="0" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="I534" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J534" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K534" s="0" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L534" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B535" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C535" s="0" t="n">
+        <v>628.3</v>
+      </c>
+      <c r="D535" s="0" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="E535" s="0" t="n">
+        <v>752</v>
+      </c>
+      <c r="F535" s="0" t="n">
+        <v>262</v>
+      </c>
+      <c r="G535" s="0" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="I535" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J535" s="0" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="K535" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="L535" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C536" s="0" t="n">
+        <v>1097.5</v>
+      </c>
+      <c r="D536" s="0" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="E536" s="0" t="n">
+        <v>939.7</v>
+      </c>
+      <c r="F536" s="0" t="n">
+        <v>370.2</v>
+      </c>
+      <c r="G536" s="0" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="I536" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J536" s="0" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="K536" s="0" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="L536" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B537" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C537" s="0" t="n">
+        <v>851.7</v>
+      </c>
+      <c r="D537" s="0" t="n">
+        <v>284.6</v>
+      </c>
+      <c r="E537" s="0" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F537" s="0" t="n">
+        <v>378.5</v>
+      </c>
+      <c r="G537" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="I537" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J537" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K537" s="0" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L537" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C538" s="0" t="n">
+        <v>907.9</v>
+      </c>
+      <c r="D538" s="0" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="E538" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F538" s="0" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="G538" s="0" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="I538" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J538" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K538" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="L538" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B539" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C539" s="0" t="n">
+        <v>985</v>
+      </c>
+      <c r="D539" s="0" t="n">
+        <v>354.1</v>
+      </c>
+      <c r="E539" s="0" t="n">
+        <v>1128.1</v>
+      </c>
+      <c r="F539" s="0" t="n">
+        <v>446.4</v>
+      </c>
+      <c r="G539" s="0" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="I539" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J539" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="K539" s="0" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="L539" s="0" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C540" s="0" t="n">
+        <v>682.6</v>
+      </c>
+      <c r="D540" s="0" t="n">
+        <v>236.3</v>
+      </c>
+      <c r="E540" s="0" t="n">
+        <v>713.1</v>
+      </c>
+      <c r="F540" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="G540" s="0" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I540" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J540" s="0" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K540" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L540" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="4" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B541" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C541" s="0" t="n">
+        <v>593.1</v>
+      </c>
+      <c r="D541" s="0" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E541" s="0" t="n">
+        <v>687.4</v>
+      </c>
+      <c r="F541" s="0" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="G541" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="I541" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="J541" s="0" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="K541" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L541" s="0" t="n">
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M541"/>
+  <dimension ref="A1:M550"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C542" activeCellId="0" sqref="C542"/>
+      <selection pane="bottomLeft" activeCell="C551" activeCellId="0" sqref="C551"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -18845,6 +18845,321 @@
       </c>
       <c r="L541" s="0" t="n">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C542" s="0" t="n">
+        <v>592</v>
+      </c>
+      <c r="D542" s="0" t="n">
+        <v>232.2</v>
+      </c>
+      <c r="E542" s="0" t="n">
+        <v>527</v>
+      </c>
+      <c r="F542" s="0" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="G542" s="0" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="I542" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="J542" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="K542" s="0" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L542" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B543" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C543" s="0" t="n">
+        <v>1142.7</v>
+      </c>
+      <c r="D543" s="0" t="n">
+        <v>415.8</v>
+      </c>
+      <c r="E543" s="0" t="n">
+        <v>879.5</v>
+      </c>
+      <c r="F543" s="0" t="n">
+        <v>345.9</v>
+      </c>
+      <c r="G543" s="0" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="I543" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="J543" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K543" s="0" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="L543" s="0" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C544" s="0" t="n">
+        <v>452.7</v>
+      </c>
+      <c r="D544" s="0" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="E544" s="0" t="n">
+        <v>416.3</v>
+      </c>
+      <c r="F544" s="0" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="G544" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="I544" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="J544" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K544" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="L544" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B545" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C545" s="0" t="n">
+        <v>817.6</v>
+      </c>
+      <c r="D545" s="0" t="n">
+        <v>324.4</v>
+      </c>
+      <c r="E545" s="0" t="n">
+        <v>568.9</v>
+      </c>
+      <c r="F545" s="0" t="n">
+        <v>212.4</v>
+      </c>
+      <c r="G545" s="0" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="I545" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="J545" s="0" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="K545" s="0" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="L545" s="0" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C546" s="0" t="n">
+        <v>591.2</v>
+      </c>
+      <c r="D546" s="0" t="n">
+        <v>225.4</v>
+      </c>
+      <c r="E546" s="0" t="n">
+        <v>619.7</v>
+      </c>
+      <c r="F546" s="0" t="n">
+        <v>213.3</v>
+      </c>
+      <c r="G546" s="0" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="I546" s="0" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="J546" s="0" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="K546" s="0" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="L546" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B547" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C547" s="0" t="n">
+        <v>544.1</v>
+      </c>
+      <c r="D547" s="0" t="n">
+        <v>206.3</v>
+      </c>
+      <c r="E547" s="0" t="n">
+        <v>578.5</v>
+      </c>
+      <c r="F547" s="0" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="G547" s="0" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I547" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J547" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="K547" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L547" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B548" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C548" s="0" t="n">
+        <v>738.7</v>
+      </c>
+      <c r="D548" s="0" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="E548" s="0" t="n">
+        <v>684.2</v>
+      </c>
+      <c r="F548" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="G548" s="0" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I548" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="J548" s="0" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K548" s="0" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="L548" s="0" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B549" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C549" s="0" t="n">
+        <v>499.6</v>
+      </c>
+      <c r="D549" s="0" t="n">
+        <v>198.7</v>
+      </c>
+      <c r="E549" s="0" t="n">
+        <v>431.5</v>
+      </c>
+      <c r="F549" s="0" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="G549" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I549" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J549" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="K549" s="0" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L549" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="4" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C550" s="0" t="n">
+        <v>428.5</v>
+      </c>
+      <c r="D550" s="0" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="E550" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="F550" s="0" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="G550" s="0" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="I550" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="J550" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K550" s="0" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="L550" s="0" t="n">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/datos/indicadores_sanidad.xlsx
+++ b/datos/indicadores_sanidad.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="26">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -318,15 +318,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M550"/>
+  <dimension ref="A1:M559"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C551" activeCellId="0" sqref="C551"/>
+      <selection pane="bottomLeft" activeCell="C560" activeCellId="0" sqref="C560"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="7.92"/>
@@ -19160,6 +19160,321 @@
       </c>
       <c r="L550" s="0" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B551" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C551" s="0" t="n">
+        <v>473.7</v>
+      </c>
+      <c r="D551" s="0" t="n">
+        <v>168.2</v>
+      </c>
+      <c r="E551" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="F551" s="0" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="G551" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I551" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J551" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K551" s="0" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="L551" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C552" s="0" t="n">
+        <v>731.9</v>
+      </c>
+      <c r="D552" s="0" t="n">
+        <v>238.5</v>
+      </c>
+      <c r="E552" s="0" t="n">
+        <v>635.1</v>
+      </c>
+      <c r="F552" s="0" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="G552" s="0" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="I552" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J552" s="0" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K552" s="0" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L552" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B553" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C553" s="0" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="D553" s="0" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E553" s="0" t="n">
+        <v>280.7</v>
+      </c>
+      <c r="F553" s="0" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="G553" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I553" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J553" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K553" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="L553" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C554" s="0" t="n">
+        <v>605.8</v>
+      </c>
+      <c r="D554" s="0" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="E554" s="0" t="n">
+        <v>481.2</v>
+      </c>
+      <c r="F554" s="0" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="G554" s="0" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="I554" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J554" s="0" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K554" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L554" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B555" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C555" s="0" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="D555" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="E555" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="F555" s="0" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="G555" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="I555" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J555" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="K555" s="0" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="L555" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C556" s="0" t="n">
+        <v>462.1</v>
+      </c>
+      <c r="D556" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="E556" s="0" t="n">
+        <v>507.6</v>
+      </c>
+      <c r="F556" s="0" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="G556" s="0" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I556" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J556" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K556" s="0" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L556" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B557" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C557" s="0" t="n">
+        <v>563.5</v>
+      </c>
+      <c r="D557" s="0" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="E557" s="0" t="n">
+        <v>513.7</v>
+      </c>
+      <c r="F557" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="G557" s="0" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I557" s="0" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J557" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="K557" s="0" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L557" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B558" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C558" s="0" t="n">
+        <v>487.5</v>
+      </c>
+      <c r="D558" s="0" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="E558" s="0" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="F558" s="0" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="G558" s="0" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="I558" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="J558" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K558" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L558" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="4" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B559" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C559" s="0" t="n">
+        <v>351</v>
+      </c>
+      <c r="D559" s="0" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="E559" s="0" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="F559" s="0" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="G559" s="0" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="I559" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J559" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="K559" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="L559" s="0" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
